--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_2_bus_ward34_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_2_bus_ward34_resistance.xlsx
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9380319009541902</v>
+        <v>0.9380319009554192</v>
       </c>
       <c r="G2">
-        <v>-1.130199522048309</v>
+        <v>-1.130199521952451</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2917056037370233</v>
+        <v>0.2917056037382961</v>
       </c>
       <c r="G3">
-        <v>-29.1713773573014</v>
+        <v>-29.1713773552604</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -575,22 +575,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>36.10160952954078</v>
+        <v>4.282962610288488</v>
       </c>
       <c r="C4">
-        <v>1250.596438803547</v>
+        <v>148.3661769587496</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354135</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.898438697960064</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>51.92351147239496</v>
+        <v>77.77984578051343</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.926842697491583E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.926842697491582E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.181382965196239</v>
+        <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009535117</v>
+        <v>0.9380319009574459</v>
       </c>
       <c r="P2">
-        <v>1.144530466370076</v>
+        <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>24.69837977239418</v>
+        <v>25.98965116739707</v>
       </c>
       <c r="R2">
-        <v>-91.13019952200929</v>
+        <v>-91.13019952201601</v>
       </c>
       <c r="S2">
-        <v>157.1622361092741</v>
+        <v>153.5693903185486</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.626957749738977</v>
+        <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.2917056037489121</v>
+        <v>0.2917056037512941</v>
       </c>
       <c r="P3">
-        <v>1.459467066098445</v>
+        <v>0.8906876332644384</v>
       </c>
       <c r="Q3">
-        <v>10.19446565278189</v>
+        <v>7.091324389062534</v>
       </c>
       <c r="R3">
-        <v>-119.171377355038</v>
+        <v>-119.1713773550799</v>
       </c>
       <c r="S3">
-        <v>-178.6946602380477</v>
+        <v>171.7794727726615</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -837,55 +837,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.695415536672967</v>
+        <v>3.70915442393707</v>
       </c>
       <c r="D4">
-        <v>6.695415536672967</v>
+        <v>3.70915442393707</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>77.3119992486908</v>
+        <v>42.82962610251918</v>
       </c>
       <c r="G4">
-        <v>77.3119992486908</v>
+        <v>42.82962610251918</v>
       </c>
       <c r="H4">
-        <v>4.382454568180978</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>3.227548034938561</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143890858</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867847234</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640115</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>2.89843869796008</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>1.71959410345767</v>
+        <v>0.9526279648032094</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.719594103459495</v>
+        <v>0.9526279648047558</v>
       </c>
       <c r="Q4">
-        <v>2.676535833466165</v>
+        <v>-1.253133125492379E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-177.3234641665197</v>
+        <v>-179.9999999999812</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.837089048521796</v>
+        <v>0.9526279647942856</v>
       </c>
       <c r="O5">
-        <v>0.117783115624338</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.788360982292784</v>
+        <v>0.9526279648136794</v>
       </c>
       <c r="Q5">
-        <v>2.941972212987566</v>
+        <v>4.605063358393287E-10</v>
       </c>
       <c r="R5">
-        <v>-113.1797984827214</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.5518706453219</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.837089048521796</v>
+        <v>0.9526279647942856</v>
       </c>
       <c r="O6">
-        <v>0.117783115624338</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.788360982292784</v>
+        <v>0.9526279648136793</v>
       </c>
       <c r="Q6">
-        <v>2.941972212987561</v>
+        <v>4.605066884408088E-10</v>
       </c>
       <c r="R6">
-        <v>-113.1797984827217</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>179.5518706453219</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.136211670431308</v>
+        <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.052811843470144</v>
+        <v>1.029837663667628</v>
       </c>
       <c r="P2">
-        <v>1.095467336856194</v>
+        <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>28.76007335316214</v>
+        <v>27.98323699101546</v>
       </c>
       <c r="R2">
-        <v>-91.32635279487428</v>
+        <v>-91.78162348160745</v>
       </c>
       <c r="S2">
-        <v>152.4988762019155</v>
+        <v>151.2113112851477</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.300821251331209</v>
+        <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>0.869329544506716</v>
+        <v>0.761777901871072</v>
       </c>
       <c r="P3">
-        <v>1.086374931436931</v>
+        <v>0.9348070984869523</v>
       </c>
       <c r="Q3">
-        <v>24.75369746983664</v>
+        <v>19.43181595267036</v>
       </c>
       <c r="R3">
-        <v>-99.33622752810143</v>
+        <v>-104.2565908665021</v>
       </c>
       <c r="S3">
-        <v>163.2474162011473</v>
+        <v>156.7400468039737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1204,55 +1204,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.18910610738155</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="D4">
-        <v>2.18910610738155</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.27762000762784</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="G4">
-        <v>25.27762000762784</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="H4">
-        <v>4.382454568180978</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>3.227548034938561</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143890858</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867847234</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640115</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>2.89843869796008</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>1.33581417716865</v>
+        <v>1.075852895209832</v>
       </c>
       <c r="O4">
-        <v>0.7739658866327578</v>
+        <v>0.6233452632551814</v>
       </c>
       <c r="P4">
-        <v>1.145953893489625</v>
+        <v>0.9229411060011539</v>
       </c>
       <c r="Q4">
-        <v>21.73116688923649</v>
+        <v>16.25665454943073</v>
       </c>
       <c r="R4">
-        <v>-99.43846619789815</v>
+        <v>-104.9129785376843</v>
       </c>
       <c r="S4">
-        <v>166.4289021684404</v>
+        <v>160.9543898286496</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.3741354711336</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>0.812208230330917</v>
+        <v>0.6233452632568746</v>
       </c>
       <c r="P5">
-        <v>1.182444073619587</v>
+        <v>0.9229411060067906</v>
       </c>
       <c r="Q5">
-        <v>21.89214758130247</v>
+        <v>16.25665454962341</v>
       </c>
       <c r="R5">
-        <v>-99.11099261018627</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S5">
-        <v>165.8231060735819</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.3741354711336</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O6">
-        <v>0.812208230330917</v>
+        <v>0.6233452632568746</v>
       </c>
       <c r="P6">
-        <v>1.182444073619587</v>
+        <v>0.9229411060067906</v>
       </c>
       <c r="Q6">
-        <v>21.89214758130247</v>
+        <v>16.25665454962341</v>
       </c>
       <c r="R6">
-        <v>-99.11099261018629</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S6">
-        <v>165.8231060735819</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.136211670431308</v>
+        <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.052811843470144</v>
+        <v>1.029837663667628</v>
       </c>
       <c r="P2">
-        <v>1.095467336856194</v>
+        <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>28.76007335316214</v>
+        <v>27.98323699101546</v>
       </c>
       <c r="R2">
-        <v>-91.32635279487428</v>
+        <v>-91.78162348160745</v>
       </c>
       <c r="S2">
-        <v>152.4988762019155</v>
+        <v>151.2113112851477</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.300821251331209</v>
+        <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>0.869329544506716</v>
+        <v>0.761777901871072</v>
       </c>
       <c r="P3">
-        <v>1.086374931436931</v>
+        <v>0.9348070984869523</v>
       </c>
       <c r="Q3">
-        <v>24.75369746983664</v>
+        <v>19.43181595267036</v>
       </c>
       <c r="R3">
-        <v>-99.33622752810143</v>
+        <v>-104.2565908665021</v>
       </c>
       <c r="S3">
-        <v>163.2474162011473</v>
+        <v>156.7400468039737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1571,55 +1571,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.18910610738155</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="D4">
-        <v>2.18910610738155</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.27762000762784</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="G4">
-        <v>25.27762000762784</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="H4">
-        <v>4.382454568180978</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>3.227548034938561</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143890858</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867847234</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640115</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>2.89843869796008</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>1.33581417716865</v>
+        <v>1.075852895209832</v>
       </c>
       <c r="O4">
-        <v>0.7739658866327578</v>
+        <v>0.6233452632551814</v>
       </c>
       <c r="P4">
-        <v>1.145953893489625</v>
+        <v>0.9229411060011539</v>
       </c>
       <c r="Q4">
-        <v>21.73116688923649</v>
+        <v>16.25665454943073</v>
       </c>
       <c r="R4">
-        <v>-99.43846619789815</v>
+        <v>-104.9129785376843</v>
       </c>
       <c r="S4">
-        <v>166.4289021684404</v>
+        <v>160.9543898286496</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.3741354711336</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>0.812208230330917</v>
+        <v>0.6233452632568746</v>
       </c>
       <c r="P5">
-        <v>1.182444073619587</v>
+        <v>0.9229411060067906</v>
       </c>
       <c r="Q5">
-        <v>21.89214758130247</v>
+        <v>16.25665454962341</v>
       </c>
       <c r="R5">
-        <v>-99.11099261018627</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S5">
-        <v>165.8231060735819</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.3741354711336</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O6">
-        <v>0.812208230330917</v>
+        <v>0.6233452632568746</v>
       </c>
       <c r="P6">
-        <v>1.182444073619587</v>
+        <v>0.9229411060067906</v>
       </c>
       <c r="Q6">
-        <v>21.89214758130247</v>
+        <v>16.25665454962341</v>
       </c>
       <c r="R6">
-        <v>-99.11099261018629</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S6">
-        <v>165.8231060735819</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.08600639050226</v>
+        <v>0.9821968591989456</v>
       </c>
       <c r="O2">
-        <v>0.8500049525448303</v>
+        <v>0.850004952541402</v>
       </c>
       <c r="P2">
-        <v>1.014940571988528</v>
+        <v>0.9468598309457216</v>
       </c>
       <c r="Q2">
-        <v>25.52437079530105</v>
+        <v>25.60992326808851</v>
       </c>
       <c r="R2">
-        <v>-92.65381631330196</v>
+        <v>-92.65381631331513</v>
       </c>
       <c r="S2">
-        <v>157.9430471933905</v>
+        <v>153.3606354236809</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.473066950479684</v>
+        <v>0.9900703401370794</v>
       </c>
       <c r="O3">
-        <v>0.3617201835003087</v>
+        <v>0.3617201835030114</v>
       </c>
       <c r="P3">
-        <v>1.20037405112525</v>
+        <v>0.764971546641112</v>
       </c>
       <c r="Q3">
-        <v>14.70040608500965</v>
+        <v>8.15088868427442</v>
       </c>
       <c r="R3">
-        <v>-129.0915432245211</v>
+        <v>-129.0915432241894</v>
       </c>
       <c r="S3">
-        <v>-175.5532894961722</v>
+        <v>169.4262793833645</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1938,55 +1938,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.495690092961794</v>
+        <v>3.119085825515527</v>
       </c>
       <c r="D4">
-        <v>5.495690092961794</v>
+        <v>3.119085825515527</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>63.45876309108503</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="G4">
-        <v>63.45876309108503</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="H4">
-        <v>6.091511901101016</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>3.212233813552743</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599508825</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560772865</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>1.113751880233296</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>3.006397543745643</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>1.525898131079032</v>
+        <v>0.8660254037880056</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.525898131080122</v>
+        <v>0.8660254037883343</v>
       </c>
       <c r="Q4">
-        <v>4.386989345997238</v>
+        <v>1.722595345440869E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-175.6130106540488</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.664703638796483</v>
+        <v>0.8660254037798931</v>
       </c>
       <c r="O5">
-        <v>0.1390272548421671</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.593046867929093</v>
+        <v>0.8660254037964467</v>
       </c>
       <c r="Q5">
-        <v>4.104818251032528</v>
+        <v>1.080488443850675E-09</v>
       </c>
       <c r="R5">
-        <v>-118.9936572212144</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9121796473304</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.664703638796483</v>
+        <v>0.8660254037798931</v>
       </c>
       <c r="O6">
-        <v>0.1390272548421674</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.593046867929093</v>
+        <v>0.8660254037964467</v>
       </c>
       <c r="Q6">
-        <v>4.104818251032532</v>
+        <v>1.080506644799812E-09</v>
       </c>
       <c r="R6">
-        <v>-118.9936572212143</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9121796473303</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.08600639050226</v>
+        <v>0.9821968591989456</v>
       </c>
       <c r="O2">
-        <v>0.8500049525448303</v>
+        <v>0.850004952541402</v>
       </c>
       <c r="P2">
-        <v>1.014940571988528</v>
+        <v>0.9468598309457216</v>
       </c>
       <c r="Q2">
-        <v>25.52437079530105</v>
+        <v>25.60992326808851</v>
       </c>
       <c r="R2">
-        <v>-92.65381631330196</v>
+        <v>-92.65381631331513</v>
       </c>
       <c r="S2">
-        <v>157.9430471933905</v>
+        <v>153.3606354236809</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.473066950479684</v>
+        <v>0.9900703401370794</v>
       </c>
       <c r="O3">
-        <v>0.3617201835003087</v>
+        <v>0.3617201835030114</v>
       </c>
       <c r="P3">
-        <v>1.20037405112525</v>
+        <v>0.764971546641112</v>
       </c>
       <c r="Q3">
-        <v>14.70040608500965</v>
+        <v>8.15088868427442</v>
       </c>
       <c r="R3">
-        <v>-129.0915432245211</v>
+        <v>-129.0915432241894</v>
       </c>
       <c r="S3">
-        <v>-175.5532894961722</v>
+        <v>169.4262793833645</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2305,55 +2305,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.495690092961794</v>
+        <v>3.119085825515527</v>
       </c>
       <c r="D4">
-        <v>5.495690092961794</v>
+        <v>3.119085825515527</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>63.45876309108503</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="G4">
-        <v>63.45876309108503</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="H4">
-        <v>6.091511901101016</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>3.212233813552743</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599508825</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560772865</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>1.113751880233296</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>3.006397543745643</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>1.525898131079032</v>
+        <v>0.8660254037880056</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.525898131080122</v>
+        <v>0.8660254037883343</v>
       </c>
       <c r="Q4">
-        <v>4.386989345997238</v>
+        <v>1.722595345440869E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-175.6130106540488</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.664703638796483</v>
+        <v>0.8660254037798931</v>
       </c>
       <c r="O5">
-        <v>0.1390272548421671</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.593046867929093</v>
+        <v>0.8660254037964467</v>
       </c>
       <c r="Q5">
-        <v>4.104818251032528</v>
+        <v>1.080488443850675E-09</v>
       </c>
       <c r="R5">
-        <v>-118.9936572212144</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9121796473304</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.664703638796483</v>
+        <v>0.8660254037798931</v>
       </c>
       <c r="O6">
-        <v>0.1390272548421674</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.593046867929093</v>
+        <v>0.8660254037964467</v>
       </c>
       <c r="Q6">
-        <v>4.104818251032532</v>
+        <v>1.080506644799812E-09</v>
       </c>
       <c r="R6">
-        <v>-118.9936572212143</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9121796473303</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.034728674609492</v>
+        <v>0.9991077190359253</v>
       </c>
       <c r="O2">
-        <v>0.9528994514047063</v>
+        <v>0.9333641900095898</v>
       </c>
       <c r="P2">
-        <v>0.9916585758610448</v>
+        <v>0.9681777323222119</v>
       </c>
       <c r="Q2">
-        <v>28.79325631383307</v>
+        <v>27.8246974452445</v>
       </c>
       <c r="R2">
-        <v>-91.51930578900455</v>
+        <v>-92.15705182751171</v>
       </c>
       <c r="S2">
-        <v>152.7414047553205</v>
+        <v>151.2048467246548</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.17614415314873</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>0.7886193192629847</v>
+        <v>0.7086876959566593</v>
       </c>
       <c r="P3">
-        <v>0.9691992922143243</v>
+        <v>0.8449321159941326</v>
       </c>
       <c r="Q3">
-        <v>25.28780689782729</v>
+        <v>19.61176266474866</v>
       </c>
       <c r="R3">
-        <v>-99.78271418362304</v>
+        <v>-105.2709110729077</v>
       </c>
       <c r="S3">
-        <v>163.532271391415</v>
+        <v>156.1359474819764</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2672,55 +2672,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.893901078492394</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="D4">
-        <v>1.893901078492394</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.86888594972213</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="G4">
-        <v>21.86888594972213</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="H4">
-        <v>6.091511901101016</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>3.212233813552743</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599508825</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560772865</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>1.113751880233296</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>3.006397543745643</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>1.194170493932657</v>
+        <v>0.9573399675119605</v>
       </c>
       <c r="O4">
-        <v>0.6695951477498449</v>
+        <v>0.5367995610775459</v>
       </c>
       <c r="P4">
-        <v>1.063995148953804</v>
+        <v>0.8529812840863314</v>
       </c>
       <c r="Q4">
-        <v>20.79479860084432</v>
+        <v>15.93288697155591</v>
       </c>
       <c r="R4">
-        <v>-96.86190222028354</v>
+        <v>-101.7238138495564</v>
       </c>
       <c r="S4">
-        <v>166.9173578831756</v>
+        <v>162.0554462537874</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.241797493484997</v>
+        <v>0.9573399675083647</v>
       </c>
       <c r="O5">
-        <v>0.7169904947399061</v>
+        <v>0.5367995610863939</v>
       </c>
       <c r="P5">
-        <v>1.104708200259351</v>
+        <v>0.8529812840931513</v>
       </c>
       <c r="Q5">
-        <v>20.54972732021518</v>
+        <v>15.93288697196761</v>
       </c>
       <c r="R5">
-        <v>-97.44158517295512</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S5">
-        <v>165.582551785474</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.241797493484998</v>
+        <v>0.9573399675083647</v>
       </c>
       <c r="O6">
-        <v>0.7169904947399061</v>
+        <v>0.536799561086394</v>
       </c>
       <c r="P6">
-        <v>1.104708200259351</v>
+        <v>0.8529812840931512</v>
       </c>
       <c r="Q6">
-        <v>20.54972732021517</v>
+        <v>15.93288697196761</v>
       </c>
       <c r="R6">
-        <v>-97.44158517295512</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S6">
-        <v>165.582551785474</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.034728674609492</v>
+        <v>0.9991077190359253</v>
       </c>
       <c r="O2">
-        <v>0.9528994514047063</v>
+        <v>0.9333641900095898</v>
       </c>
       <c r="P2">
-        <v>0.9916585758610448</v>
+        <v>0.9681777323222119</v>
       </c>
       <c r="Q2">
-        <v>28.79325631383307</v>
+        <v>27.8246974452445</v>
       </c>
       <c r="R2">
-        <v>-91.51930578900455</v>
+        <v>-92.15705182751171</v>
       </c>
       <c r="S2">
-        <v>152.7414047553205</v>
+        <v>151.2048467246548</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.17614415314873</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>0.7886193192629847</v>
+        <v>0.7086876959566593</v>
       </c>
       <c r="P3">
-        <v>0.9691992922143243</v>
+        <v>0.8449321159941326</v>
       </c>
       <c r="Q3">
-        <v>25.28780689782729</v>
+        <v>19.61176266474866</v>
       </c>
       <c r="R3">
-        <v>-99.78271418362304</v>
+        <v>-105.2709110729077</v>
       </c>
       <c r="S3">
-        <v>163.532271391415</v>
+        <v>156.1359474819764</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3039,55 +3039,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.893901078492394</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="D4">
-        <v>1.893901078492394</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.86888594972213</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="G4">
-        <v>21.86888594972213</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="H4">
-        <v>6.091511901101016</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>3.212233813552743</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599508825</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560772865</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>1.113751880233296</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>3.006397543745643</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>1.194170493932657</v>
+        <v>0.9573399675119605</v>
       </c>
       <c r="O4">
-        <v>0.6695951477498449</v>
+        <v>0.5367995610775459</v>
       </c>
       <c r="P4">
-        <v>1.063995148953804</v>
+        <v>0.8529812840863314</v>
       </c>
       <c r="Q4">
-        <v>20.79479860084432</v>
+        <v>15.93288697155591</v>
       </c>
       <c r="R4">
-        <v>-96.86190222028354</v>
+        <v>-101.7238138495564</v>
       </c>
       <c r="S4">
-        <v>166.9173578831756</v>
+        <v>162.0554462537874</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.241797493484997</v>
+        <v>0.9573399675083647</v>
       </c>
       <c r="O5">
-        <v>0.7169904947399061</v>
+        <v>0.5367995610863939</v>
       </c>
       <c r="P5">
-        <v>1.104708200259351</v>
+        <v>0.8529812840931513</v>
       </c>
       <c r="Q5">
-        <v>20.54972732021518</v>
+        <v>15.93288697196761</v>
       </c>
       <c r="R5">
-        <v>-97.44158517295512</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S5">
-        <v>165.582551785474</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.241797493484998</v>
+        <v>0.9573399675083647</v>
       </c>
       <c r="O6">
-        <v>0.7169904947399061</v>
+        <v>0.536799561086394</v>
       </c>
       <c r="P6">
-        <v>1.104708200259351</v>
+        <v>0.8529812840931512</v>
       </c>
       <c r="Q6">
-        <v>20.54972732021517</v>
+        <v>15.93288697196761</v>
       </c>
       <c r="R6">
-        <v>-97.44158517295512</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S6">
-        <v>165.582551785474</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.041008969882457</v>
+        <v>0.9861308108586486</v>
       </c>
       <c r="O2">
-        <v>1.142366358948753</v>
+        <v>1.100000023847537</v>
       </c>
       <c r="P2">
-        <v>1.098312692212692</v>
+        <v>1.028855199037967</v>
       </c>
       <c r="Q2">
-        <v>31.38635362134359</v>
+        <v>31.20178199995176</v>
       </c>
       <c r="R2">
-        <v>-88.42456777196205</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S2">
-        <v>146.901259747156</v>
+        <v>145.0676635123766</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.79049114243153</v>
+        <v>0.5017839789834513</v>
       </c>
       <c r="O3">
-        <v>1.323005595899568</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P3">
-        <v>1.142760790204769</v>
+        <v>0.8775850755570955</v>
       </c>
       <c r="Q3">
-        <v>38.40808255578496</v>
+        <v>38.79388502419479</v>
       </c>
       <c r="R3">
-        <v>-82.33785229736195</v>
+        <v>-89.99999999999655</v>
       </c>
       <c r="S3">
-        <v>134.1398013886996</v>
+        <v>116.4647194486009</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>4.610057257483602</v>
+        <v>5.270261429553182</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>53.23235597175491</v>
+        <v>60.85573710104463</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3430,43 +3430,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.382454568181025</v>
+        <v>1.849825689567651</v>
       </c>
       <c r="I4">
-        <v>3.227548034938457</v>
+        <v>0.7325309365756871</v>
       </c>
       <c r="J4">
-        <v>0.216979414376605</v>
+        <v>0.6277319162686238</v>
       </c>
       <c r="K4">
-        <v>0.276958086776748</v>
+        <v>2.898438697960062</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638759</v>
+        <v>0.62773191636399</v>
       </c>
       <c r="M4">
-        <v>2.89843869795987</v>
+        <v>2.898438697959878</v>
       </c>
       <c r="N4">
-        <v>0.753195906987613</v>
+        <v>0.4179741834732568</v>
       </c>
       <c r="O4">
-        <v>1.416085592817002</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P4">
-        <v>1.105577990751633</v>
+        <v>0.7534809345991491</v>
       </c>
       <c r="Q4">
-        <v>46.50417297838521</v>
+        <v>62.67922138001573</v>
       </c>
       <c r="R4">
-        <v>-82.76752877234661</v>
+        <v>-89.99999999999665</v>
       </c>
       <c r="S4">
-        <v>129.0628488795072</v>
+        <v>104.7500506116007</v>
       </c>
       <c r="T4">
-        <v>4.610057257483602</v>
+        <v>5.270261429553181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7984432318726259</v>
+        <v>0.4179741834901594</v>
       </c>
       <c r="O5">
-        <v>1.462652604793724</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P5">
-        <v>1.149098677630288</v>
+        <v>0.7534809345867743</v>
       </c>
       <c r="Q5">
-        <v>45.6145159440492</v>
+        <v>62.67922137998031</v>
       </c>
       <c r="R5">
-        <v>-82.96185384314204</v>
+        <v>-89.99999999999682</v>
       </c>
       <c r="S5">
-        <v>129.9407638512878</v>
+        <v>104.7500506124762</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.798443231872626</v>
+        <v>0.4179741834901595</v>
       </c>
       <c r="O6">
-        <v>1.462652604793723</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P6">
-        <v>1.149098677630288</v>
+        <v>0.7534809345867743</v>
       </c>
       <c r="Q6">
-        <v>45.6145159440492</v>
+        <v>62.67922137998029</v>
       </c>
       <c r="R6">
-        <v>-82.96185384314202</v>
+        <v>-89.99999999999683</v>
       </c>
       <c r="S6">
-        <v>129.9407638512878</v>
+        <v>104.7500506124762</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.041008969882457</v>
+        <v>0.9861308108586486</v>
       </c>
       <c r="O2">
-        <v>1.142366358948753</v>
+        <v>1.100000023847537</v>
       </c>
       <c r="P2">
-        <v>1.098312692212692</v>
+        <v>1.028855199037967</v>
       </c>
       <c r="Q2">
-        <v>31.38635362134359</v>
+        <v>31.20178199995176</v>
       </c>
       <c r="R2">
-        <v>-88.42456777196205</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S2">
-        <v>146.901259747156</v>
+        <v>145.0676635123766</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.79049114243153</v>
+        <v>0.5017839789834513</v>
       </c>
       <c r="O3">
-        <v>1.323005595899568</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P3">
-        <v>1.142760790204769</v>
+        <v>0.8775850755570955</v>
       </c>
       <c r="Q3">
-        <v>38.40808255578496</v>
+        <v>38.79388502419479</v>
       </c>
       <c r="R3">
-        <v>-82.33785229736195</v>
+        <v>-89.99999999999655</v>
       </c>
       <c r="S3">
-        <v>134.1398013886996</v>
+        <v>116.4647194486009</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>4.610057257483602</v>
+        <v>5.270261429553182</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>53.23235597175491</v>
+        <v>60.85573710104463</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3815,43 +3815,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.382454568181025</v>
+        <v>1.849825689567651</v>
       </c>
       <c r="I4">
-        <v>3.227548034938457</v>
+        <v>0.7325309365756871</v>
       </c>
       <c r="J4">
-        <v>0.216979414376605</v>
+        <v>0.6277319162686238</v>
       </c>
       <c r="K4">
-        <v>0.276958086776748</v>
+        <v>2.898438697960062</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638759</v>
+        <v>0.62773191636399</v>
       </c>
       <c r="M4">
-        <v>2.89843869795987</v>
+        <v>2.898438697959878</v>
       </c>
       <c r="N4">
-        <v>0.753195906987613</v>
+        <v>0.4179741834732568</v>
       </c>
       <c r="O4">
-        <v>1.416085592817002</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P4">
-        <v>1.105577990751633</v>
+        <v>0.7534809345991491</v>
       </c>
       <c r="Q4">
-        <v>46.50417297838521</v>
+        <v>62.67922138001573</v>
       </c>
       <c r="R4">
-        <v>-82.76752877234661</v>
+        <v>-89.99999999999665</v>
       </c>
       <c r="S4">
-        <v>129.0628488795072</v>
+        <v>104.7500506116007</v>
       </c>
       <c r="T4">
-        <v>4.610057257483602</v>
+        <v>5.270261429553181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7984432318726259</v>
+        <v>0.4179741834901594</v>
       </c>
       <c r="O5">
-        <v>1.462652604793724</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P5">
-        <v>1.149098677630288</v>
+        <v>0.7534809345867743</v>
       </c>
       <c r="Q5">
-        <v>45.6145159440492</v>
+        <v>62.67922137998031</v>
       </c>
       <c r="R5">
-        <v>-82.96185384314204</v>
+        <v>-89.99999999999682</v>
       </c>
       <c r="S5">
-        <v>129.9407638512878</v>
+        <v>104.7500506124762</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.798443231872626</v>
+        <v>0.4179741834901595</v>
       </c>
       <c r="O6">
-        <v>1.462652604793723</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P6">
-        <v>1.149098677630288</v>
+        <v>0.7534809345867743</v>
       </c>
       <c r="Q6">
-        <v>45.6145159440492</v>
+        <v>62.67922137998029</v>
       </c>
       <c r="R6">
-        <v>-82.96185384314202</v>
+        <v>-89.99999999999683</v>
       </c>
       <c r="S6">
-        <v>129.9407638512878</v>
+        <v>104.7500506124762</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.082904198927673</v>
+        <v>1.070287335385026</v>
       </c>
       <c r="O2">
-        <v>1.111142399238749</v>
+        <v>1.100000023843436</v>
       </c>
       <c r="P2">
-        <v>1.100412082390874</v>
+        <v>1.087432713371585</v>
       </c>
       <c r="Q2">
-        <v>30.30924608528139</v>
+        <v>29.87894597690854</v>
       </c>
       <c r="R2">
-        <v>-89.50265230706398</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.131088526053</v>
+        <v>148.5843831011227</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.008958478756537</v>
+        <v>0.94499511013698</v>
       </c>
       <c r="O3">
-        <v>1.15678047971234</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P3">
-        <v>1.109594384501288</v>
+        <v>1.049816937116054</v>
       </c>
       <c r="Q3">
-        <v>31.47041246058276</v>
+        <v>28.77922907069108</v>
       </c>
       <c r="R3">
-        <v>-87.34043577557348</v>
+        <v>-89.99999999999649</v>
       </c>
       <c r="S3">
-        <v>145.480056677887</v>
+        <v>142.0890444401773</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.29395031766862</v>
+        <v>1.354590696141222</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.94125128447959</v>
+        <v>15.64146606117794</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4200,43 +4200,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.382454568181025</v>
+        <v>1.849825689567651</v>
       </c>
       <c r="I4">
-        <v>3.227548034938457</v>
+        <v>0.7325309365756871</v>
       </c>
       <c r="J4">
-        <v>0.216979414376605</v>
+        <v>0.6277319162686238</v>
       </c>
       <c r="K4">
-        <v>0.276958086776748</v>
+        <v>2.898438697960062</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638759</v>
+        <v>0.62773191636399</v>
       </c>
       <c r="M4">
-        <v>2.89843869795987</v>
+        <v>2.898438697959878</v>
       </c>
       <c r="N4">
-        <v>0.9912523564127694</v>
+        <v>0.8993131324624146</v>
       </c>
       <c r="O4">
-        <v>1.183037136998263</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P4">
-        <v>1.094901012932569</v>
+        <v>1.00754439640636</v>
       </c>
       <c r="Q4">
-        <v>33.01953758561054</v>
+        <v>30.48183270043303</v>
       </c>
       <c r="R4">
-        <v>-87.28166607376531</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S4">
-        <v>144.130481939623</v>
+        <v>140.283523874082</v>
       </c>
       <c r="T4">
-        <v>1.29395031766862</v>
+        <v>1.354590696141222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.004384063527984</v>
+        <v>0.8993131324654359</v>
       </c>
       <c r="O5">
-        <v>1.196165917030358</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P5">
-        <v>1.107796786237384</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q5">
-        <v>33.04944345020369</v>
+        <v>30.48183270063194</v>
       </c>
       <c r="R5">
-        <v>-87.25324876398015</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S5">
-        <v>144.2622172029357</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.004384063527984</v>
+        <v>0.8993131324654359</v>
       </c>
       <c r="O6">
-        <v>1.196165917030358</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P6">
-        <v>1.107796786237384</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q6">
-        <v>33.0494434502037</v>
+        <v>30.48183270063194</v>
       </c>
       <c r="R6">
-        <v>-87.25324876398015</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S6">
-        <v>144.2622172029357</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9380319009541902</v>
+        <v>0.9380319009554192</v>
       </c>
       <c r="G2">
-        <v>-1.130199522048309</v>
+        <v>-1.130199521952451</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2917056037370233</v>
+        <v>0.2917056037382961</v>
       </c>
       <c r="G3">
-        <v>-29.1713773573014</v>
+        <v>-29.1713773552604</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4450,22 +4450,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>36.10160952954078</v>
+        <v>4.282962610288488</v>
       </c>
       <c r="C4">
-        <v>1250.596438803547</v>
+        <v>148.3661769587496</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354135</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.898438697960064</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>51.92351147239496</v>
+        <v>77.77984578051343</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.926842697491583E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.926842697491582E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.082904198927673</v>
+        <v>1.070287335385026</v>
       </c>
       <c r="O2">
-        <v>1.111142399238749</v>
+        <v>1.100000023843436</v>
       </c>
       <c r="P2">
-        <v>1.100412082390874</v>
+        <v>1.087432713371585</v>
       </c>
       <c r="Q2">
-        <v>30.30924608528139</v>
+        <v>29.87894597690854</v>
       </c>
       <c r="R2">
-        <v>-89.50265230706398</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.131088526053</v>
+        <v>148.5843831011227</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.008958478756537</v>
+        <v>0.94499511013698</v>
       </c>
       <c r="O3">
-        <v>1.15678047971234</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P3">
-        <v>1.109594384501288</v>
+        <v>1.049816937116054</v>
       </c>
       <c r="Q3">
-        <v>31.47041246058276</v>
+        <v>28.77922907069108</v>
       </c>
       <c r="R3">
-        <v>-87.34043577557348</v>
+        <v>-89.99999999999649</v>
       </c>
       <c r="S3">
-        <v>145.480056677887</v>
+        <v>142.0890444401773</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.29395031766862</v>
+        <v>1.354590696141222</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.94125128447959</v>
+        <v>15.64146606117794</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4736,43 +4736,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.382454568181025</v>
+        <v>1.849825689567651</v>
       </c>
       <c r="I4">
-        <v>3.227548034938457</v>
+        <v>0.7325309365756871</v>
       </c>
       <c r="J4">
-        <v>0.216979414376605</v>
+        <v>0.6277319162686238</v>
       </c>
       <c r="K4">
-        <v>0.276958086776748</v>
+        <v>2.898438697960062</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638759</v>
+        <v>0.62773191636399</v>
       </c>
       <c r="M4">
-        <v>2.89843869795987</v>
+        <v>2.898438697959878</v>
       </c>
       <c r="N4">
-        <v>0.9912523564127694</v>
+        <v>0.8993131324624146</v>
       </c>
       <c r="O4">
-        <v>1.183037136998263</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P4">
-        <v>1.094901012932569</v>
+        <v>1.00754439640636</v>
       </c>
       <c r="Q4">
-        <v>33.01953758561054</v>
+        <v>30.48183270043303</v>
       </c>
       <c r="R4">
-        <v>-87.28166607376531</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S4">
-        <v>144.130481939623</v>
+        <v>140.283523874082</v>
       </c>
       <c r="T4">
-        <v>1.29395031766862</v>
+        <v>1.354590696141222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.004384063527984</v>
+        <v>0.8993131324654359</v>
       </c>
       <c r="O5">
-        <v>1.196165917030358</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P5">
-        <v>1.107796786237384</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q5">
-        <v>33.04944345020369</v>
+        <v>30.48183270063194</v>
       </c>
       <c r="R5">
-        <v>-87.25324876398015</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S5">
-        <v>144.2622172029357</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.004384063527984</v>
+        <v>0.8993131324654359</v>
       </c>
       <c r="O6">
-        <v>1.196165917030358</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P6">
-        <v>1.107796786237384</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q6">
-        <v>33.0494434502037</v>
+        <v>30.48183270063194</v>
       </c>
       <c r="R6">
-        <v>-87.25324876398015</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S6">
-        <v>144.2622172029357</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9444495963911571</v>
+        <v>0.9028326587833732</v>
       </c>
       <c r="O2">
-        <v>1.028842507212838</v>
+        <v>0.9999999999953423</v>
       </c>
       <c r="P2">
-        <v>1.005325669697296</v>
+        <v>0.9626941529704611</v>
       </c>
       <c r="Q2">
-        <v>30.76273356298464</v>
+        <v>29.46991355217288</v>
       </c>
       <c r="R2">
-        <v>-88.15818264564913</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>147.1561291294727</v>
+        <v>144.7337965372936</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7295297474794566</v>
+        <v>0.5363499856580267</v>
       </c>
       <c r="O3">
-        <v>1.140755112252105</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P3">
-        <v>1.05981223861532</v>
+        <v>0.9313780817015812</v>
       </c>
       <c r="Q3">
-        <v>33.67531141959329</v>
+        <v>23.06203797024838</v>
       </c>
       <c r="R3">
-        <v>-81.58763997883018</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S3">
-        <v>136.9129086907428</v>
+        <v>121.9949494734441</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.45642942271056</v>
+        <v>3.902567407462479</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>39.91140915273769</v>
+        <v>45.06296686458244</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5121,43 +5121,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6.091511901101093</v>
+        <v>3.55163834448745</v>
       </c>
       <c r="I4">
-        <v>3.21223381355265</v>
+        <v>0.7246530378262186</v>
       </c>
       <c r="J4">
-        <v>0.4078030599463638</v>
+        <v>1.113751880274868</v>
       </c>
       <c r="K4">
-        <v>0.2994698560579394</v>
+        <v>3.00639754374561</v>
       </c>
       <c r="L4">
-        <v>1.113751880233131</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>3.006397543745375</v>
+        <v>3.006397543745379</v>
       </c>
       <c r="N4">
-        <v>0.69575209348238</v>
+        <v>0.3976035367747505</v>
       </c>
       <c r="O4">
-        <v>1.239453212194131</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P4">
-        <v>0.996131533943806</v>
+        <v>0.7694482201421926</v>
       </c>
       <c r="Q4">
-        <v>43.97565898847601</v>
+        <v>45.38254385680958</v>
       </c>
       <c r="R4">
-        <v>-82.61298640455287</v>
+        <v>-89.999999999997</v>
       </c>
       <c r="S4">
-        <v>131.4990975889998</v>
+        <v>111.2809607241676</v>
       </c>
       <c r="T4">
-        <v>3.45642942271056</v>
+        <v>3.902567407462479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7438628982292792</v>
+        <v>0.3976035367946174</v>
       </c>
       <c r="O5">
-        <v>1.288934005829409</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P5">
-        <v>1.045140561073674</v>
+        <v>0.7694482201323417</v>
       </c>
       <c r="Q5">
-        <v>42.75764288561679</v>
+        <v>45.3825438570837</v>
       </c>
       <c r="R5">
-        <v>-83.06670201923625</v>
+        <v>-89.99999999999729</v>
       </c>
       <c r="S5">
-        <v>132.1791021557926</v>
+        <v>111.2809607254598</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.743862898229279</v>
+        <v>0.3976035367946174</v>
       </c>
       <c r="O6">
-        <v>1.288934005829409</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P6">
-        <v>1.045140561073674</v>
+        <v>0.7694482201323417</v>
       </c>
       <c r="Q6">
-        <v>42.75764288561679</v>
+        <v>45.38254385708369</v>
       </c>
       <c r="R6">
-        <v>-83.06670201923625</v>
+        <v>-89.99999999999729</v>
       </c>
       <c r="S6">
-        <v>132.1791021557926</v>
+        <v>111.2809607254598</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9444495963911571</v>
+        <v>0.9028326587833732</v>
       </c>
       <c r="O2">
-        <v>1.028842507212838</v>
+        <v>0.9999999999953423</v>
       </c>
       <c r="P2">
-        <v>1.005325669697296</v>
+        <v>0.9626941529704611</v>
       </c>
       <c r="Q2">
-        <v>30.76273356298464</v>
+        <v>29.46991355217288</v>
       </c>
       <c r="R2">
-        <v>-88.15818264564913</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>147.1561291294727</v>
+        <v>144.7337965372936</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7295297474794566</v>
+        <v>0.5363499856580267</v>
       </c>
       <c r="O3">
-        <v>1.140755112252105</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P3">
-        <v>1.05981223861532</v>
+        <v>0.9313780817015812</v>
       </c>
       <c r="Q3">
-        <v>33.67531141959329</v>
+        <v>23.06203797024838</v>
       </c>
       <c r="R3">
-        <v>-81.58763997883018</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S3">
-        <v>136.9129086907428</v>
+        <v>121.9949494734441</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.45642942271056</v>
+        <v>3.902567407462479</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>39.91140915273769</v>
+        <v>45.06296686458244</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5506,43 +5506,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6.091511901101093</v>
+        <v>3.55163834448745</v>
       </c>
       <c r="I4">
-        <v>3.21223381355265</v>
+        <v>0.7246530378262186</v>
       </c>
       <c r="J4">
-        <v>0.4078030599463638</v>
+        <v>1.113751880274868</v>
       </c>
       <c r="K4">
-        <v>0.2994698560579394</v>
+        <v>3.00639754374561</v>
       </c>
       <c r="L4">
-        <v>1.113751880233131</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>3.006397543745375</v>
+        <v>3.006397543745379</v>
       </c>
       <c r="N4">
-        <v>0.69575209348238</v>
+        <v>0.3976035367747505</v>
       </c>
       <c r="O4">
-        <v>1.239453212194131</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P4">
-        <v>0.996131533943806</v>
+        <v>0.7694482201421926</v>
       </c>
       <c r="Q4">
-        <v>43.97565898847601</v>
+        <v>45.38254385680958</v>
       </c>
       <c r="R4">
-        <v>-82.61298640455287</v>
+        <v>-89.999999999997</v>
       </c>
       <c r="S4">
-        <v>131.4990975889998</v>
+        <v>111.2809607241676</v>
       </c>
       <c r="T4">
-        <v>3.45642942271056</v>
+        <v>3.902567407462479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7438628982292792</v>
+        <v>0.3976035367946174</v>
       </c>
       <c r="O5">
-        <v>1.288934005829409</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P5">
-        <v>1.045140561073674</v>
+        <v>0.7694482201323417</v>
       </c>
       <c r="Q5">
-        <v>42.75764288561679</v>
+        <v>45.3825438570837</v>
       </c>
       <c r="R5">
-        <v>-83.06670201923625</v>
+        <v>-89.99999999999729</v>
       </c>
       <c r="S5">
-        <v>132.1791021557926</v>
+        <v>111.2809607254598</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.743862898229279</v>
+        <v>0.3976035367946174</v>
       </c>
       <c r="O6">
-        <v>1.288934005829409</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P6">
-        <v>1.045140561073674</v>
+        <v>0.7694482201323417</v>
       </c>
       <c r="Q6">
-        <v>42.75764288561679</v>
+        <v>45.38254385708369</v>
       </c>
       <c r="R6">
-        <v>-83.06670201923625</v>
+        <v>-89.99999999999729</v>
       </c>
       <c r="S6">
-        <v>132.1791021557926</v>
+        <v>111.2809607254598</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.982386722916912</v>
+        <v>0.9714894419843783</v>
       </c>
       <c r="O2">
-        <v>1.009685411741658</v>
+        <v>0.9999999999985384</v>
       </c>
       <c r="P2">
-        <v>1.000598718338312</v>
+        <v>0.9895711899749619</v>
       </c>
       <c r="Q2">
-        <v>30.28979761242646</v>
+        <v>29.76366881512976</v>
       </c>
       <c r="R2">
-        <v>-89.42543438116959</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.0802631097256</v>
+        <v>148.453800399059</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9137970217797989</v>
+        <v>0.8636183456042644</v>
       </c>
       <c r="O3">
-        <v>1.045269447874329</v>
+        <v>0.9999999999999917</v>
       </c>
       <c r="P3">
-        <v>1.009285427733251</v>
+        <v>0.9636262065017435</v>
       </c>
       <c r="Q3">
-        <v>31.22767391378395</v>
+        <v>28.23968561661016</v>
       </c>
       <c r="R3">
-        <v>-87.18452618357431</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S3">
-        <v>145.5968531824568</v>
+        <v>142.1430813749406</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.109753593992643</v>
+        <v>1.151958685387573</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.81433072451614</v>
+        <v>13.30167314207686</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5891,43 +5891,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6.091511901101093</v>
+        <v>3.55163834448745</v>
       </c>
       <c r="I4">
-        <v>3.21223381355265</v>
+        <v>0.7246530378262186</v>
       </c>
       <c r="J4">
-        <v>0.4078030599463638</v>
+        <v>1.113751880274868</v>
       </c>
       <c r="K4">
-        <v>0.2994698560579394</v>
+        <v>3.00639754374561</v>
       </c>
       <c r="L4">
-        <v>1.113751880233131</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>3.006397543745375</v>
+        <v>3.006397543745379</v>
       </c>
       <c r="N4">
-        <v>0.9006367027663497</v>
+        <v>0.8168453072499234</v>
       </c>
       <c r="O4">
-        <v>1.07719890848406</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P4">
-        <v>0.9820722566894456</v>
+        <v>0.9021094454740588</v>
       </c>
       <c r="Q4">
-        <v>33.77845815565124</v>
+        <v>31.49316412544034</v>
       </c>
       <c r="R4">
-        <v>-87.48697766978273</v>
+        <v>-89.99999999999656</v>
       </c>
       <c r="S4">
-        <v>144.1313889514665</v>
+        <v>140.5435759540181</v>
       </c>
       <c r="T4">
-        <v>1.109753593992643</v>
+        <v>1.151958685387573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9165491716780925</v>
+        <v>0.8168453072553684</v>
       </c>
       <c r="O5">
-        <v>1.093174401788294</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P5">
-        <v>0.9982759014442142</v>
+        <v>0.9021094454737091</v>
       </c>
       <c r="Q5">
-        <v>33.58398673592176</v>
+        <v>31.4931641255981</v>
       </c>
       <c r="R5">
-        <v>-87.63157589888829</v>
+        <v>-89.99999999999666</v>
       </c>
       <c r="S5">
-        <v>144.1083612587476</v>
+        <v>140.5435759543916</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9165491716780925</v>
+        <v>0.8168453072553683</v>
       </c>
       <c r="O6">
-        <v>1.093174401788294</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P6">
-        <v>0.9982759014442142</v>
+        <v>0.9021094454737091</v>
       </c>
       <c r="Q6">
-        <v>33.58398673592175</v>
+        <v>31.4931641255981</v>
       </c>
       <c r="R6">
-        <v>-87.63157589888829</v>
+        <v>-89.99999999999666</v>
       </c>
       <c r="S6">
-        <v>144.1083612587476</v>
+        <v>140.5435759543916</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.982386722916912</v>
+        <v>0.9714894419843783</v>
       </c>
       <c r="O2">
-        <v>1.009685411741658</v>
+        <v>0.9999999999985384</v>
       </c>
       <c r="P2">
-        <v>1.000598718338312</v>
+        <v>0.9895711899749619</v>
       </c>
       <c r="Q2">
-        <v>30.28979761242646</v>
+        <v>29.76366881512976</v>
       </c>
       <c r="R2">
-        <v>-89.42543438116959</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.0802631097256</v>
+        <v>148.453800399059</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9137970217797989</v>
+        <v>0.8636183456042644</v>
       </c>
       <c r="O3">
-        <v>1.045269447874329</v>
+        <v>0.9999999999999917</v>
       </c>
       <c r="P3">
-        <v>1.009285427733251</v>
+        <v>0.9636262065017435</v>
       </c>
       <c r="Q3">
-        <v>31.22767391378395</v>
+        <v>28.23968561661016</v>
       </c>
       <c r="R3">
-        <v>-87.18452618357431</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S3">
-        <v>145.5968531824568</v>
+        <v>142.1430813749406</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.109753593992643</v>
+        <v>1.151958685387573</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.81433072451614</v>
+        <v>13.30167314207686</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6276,43 +6276,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6.091511901101093</v>
+        <v>3.55163834448745</v>
       </c>
       <c r="I4">
-        <v>3.21223381355265</v>
+        <v>0.7246530378262186</v>
       </c>
       <c r="J4">
-        <v>0.4078030599463638</v>
+        <v>1.113751880274868</v>
       </c>
       <c r="K4">
-        <v>0.2994698560579394</v>
+        <v>3.00639754374561</v>
       </c>
       <c r="L4">
-        <v>1.113751880233131</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>3.006397543745375</v>
+        <v>3.006397543745379</v>
       </c>
       <c r="N4">
-        <v>0.9006367027663497</v>
+        <v>0.8168453072499234</v>
       </c>
       <c r="O4">
-        <v>1.07719890848406</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P4">
-        <v>0.9820722566894456</v>
+        <v>0.9021094454740588</v>
       </c>
       <c r="Q4">
-        <v>33.77845815565124</v>
+        <v>31.49316412544034</v>
       </c>
       <c r="R4">
-        <v>-87.48697766978273</v>
+        <v>-89.99999999999656</v>
       </c>
       <c r="S4">
-        <v>144.1313889514665</v>
+        <v>140.5435759540181</v>
       </c>
       <c r="T4">
-        <v>1.109753593992643</v>
+        <v>1.151958685387573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9165491716780925</v>
+        <v>0.8168453072553684</v>
       </c>
       <c r="O5">
-        <v>1.093174401788294</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P5">
-        <v>0.9982759014442142</v>
+        <v>0.9021094454737091</v>
       </c>
       <c r="Q5">
-        <v>33.58398673592176</v>
+        <v>31.4931641255981</v>
       </c>
       <c r="R5">
-        <v>-87.63157589888829</v>
+        <v>-89.99999999999666</v>
       </c>
       <c r="S5">
-        <v>144.1083612587476</v>
+        <v>140.5435759543916</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9165491716780925</v>
+        <v>0.8168453072553683</v>
       </c>
       <c r="O6">
-        <v>1.093174401788294</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P6">
-        <v>0.9982759014442142</v>
+        <v>0.9021094454737091</v>
       </c>
       <c r="Q6">
-        <v>33.58398673592175</v>
+        <v>31.4931641255981</v>
       </c>
       <c r="R6">
-        <v>-87.63157589888829</v>
+        <v>-89.99999999999666</v>
       </c>
       <c r="S6">
-        <v>144.1083612587476</v>
+        <v>140.5435759543916</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.167287914126915</v>
+        <v>1.003771146437942</v>
       </c>
       <c r="O2">
-        <v>0.9380319009537554</v>
+        <v>0.9380319009600877</v>
       </c>
       <c r="P2">
-        <v>1.135378190752478</v>
+        <v>1.027066586988846</v>
       </c>
       <c r="Q2">
-        <v>24.67752577342477</v>
+        <v>25.10974688705308</v>
       </c>
       <c r="R2">
-        <v>-91.13019952199889</v>
+        <v>-91.1301995219643</v>
       </c>
       <c r="S2">
-        <v>156.6230270362212</v>
+        <v>150.105434766502</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.557235124389686</v>
+        <v>0.7662234980466637</v>
       </c>
       <c r="O3">
-        <v>0.2917056037475592</v>
+        <v>0.2917056037515682</v>
       </c>
       <c r="P3">
-        <v>1.394607119008205</v>
+        <v>0.7170203818791413</v>
       </c>
       <c r="Q3">
-        <v>9.29515448879665</v>
+        <v>-8.463037977617292</v>
       </c>
       <c r="R3">
-        <v>-119.171377355015</v>
+        <v>-119.1713773541731</v>
       </c>
       <c r="S3">
-        <v>179.8692653662987</v>
+        <v>149.1694533067009</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6646,58 +6646,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.681630600768189</v>
+        <v>5.978372114037349</v>
       </c>
       <c r="D4">
-        <v>6.595793876562039</v>
+        <v>3.316348281737781</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>111.7938406709606</v>
+        <v>69.03229498710431</v>
       </c>
       <c r="G4">
-        <v>76.16166740304759</v>
+        <v>38.29389146375722</v>
       </c>
       <c r="H4">
-        <v>4.382454568180978</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>3.227548034938561</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143890858</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867847234</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640115</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>2.89843869796008</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>1.629061811536068</v>
+        <v>0.6168272759030893</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.629061811539435</v>
+        <v>0.6168272759106724</v>
       </c>
       <c r="Q4">
-        <v>1.685818496148136</v>
+        <v>-23.63454170168728</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-178.31418150378</v>
+        <v>156.3654582984636</v>
       </c>
       <c r="T4">
-        <v>5.986227633651503</v>
+        <v>6.200555778018478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.783669594725318</v>
+        <v>0.6168272758892142</v>
       </c>
       <c r="O5">
-        <v>0.1622446654284274</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.75386487164067</v>
+        <v>0.6168272759194585</v>
       </c>
       <c r="Q5">
-        <v>3.339296023410447</v>
+        <v>-23.63454170045775</v>
       </c>
       <c r="R5">
-        <v>-99.81934899440158</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>178.1712002134814</v>
+        <v>156.3654582990194</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.783669594725317</v>
+        <v>0.6168272758892139</v>
       </c>
       <c r="O6">
-        <v>0.1622446654284272</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.753864871640669</v>
+        <v>0.6168272759194585</v>
       </c>
       <c r="Q6">
-        <v>3.339296023410446</v>
+        <v>-23.63454170045775</v>
       </c>
       <c r="R6">
-        <v>-99.81934899440158</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>178.1712002134815</v>
+        <v>156.3654582990194</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.167287914126915</v>
+        <v>1.003771146437942</v>
       </c>
       <c r="O2">
-        <v>0.9380319009537554</v>
+        <v>0.9380319009600877</v>
       </c>
       <c r="P2">
-        <v>1.135378190752478</v>
+        <v>1.027066586988846</v>
       </c>
       <c r="Q2">
-        <v>24.67752577342477</v>
+        <v>25.10974688705308</v>
       </c>
       <c r="R2">
-        <v>-91.13019952199889</v>
+        <v>-91.1301995219643</v>
       </c>
       <c r="S2">
-        <v>156.6230270362212</v>
+        <v>150.105434766502</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.557235124389686</v>
+        <v>0.7662234980466637</v>
       </c>
       <c r="O3">
-        <v>0.2917056037475592</v>
+        <v>0.2917056037515682</v>
       </c>
       <c r="P3">
-        <v>1.394607119008205</v>
+        <v>0.7170203818791413</v>
       </c>
       <c r="Q3">
-        <v>9.29515448879665</v>
+        <v>-8.463037977617292</v>
       </c>
       <c r="R3">
-        <v>-119.171377355015</v>
+        <v>-119.1713773541731</v>
       </c>
       <c r="S3">
-        <v>179.8692653662987</v>
+        <v>149.1694533067009</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7031,58 +7031,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.681630600768189</v>
+        <v>5.978372114037349</v>
       </c>
       <c r="D4">
-        <v>6.595793876562039</v>
+        <v>3.316348281737781</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>111.7938406709606</v>
+        <v>69.03229498710431</v>
       </c>
       <c r="G4">
-        <v>76.16166740304759</v>
+        <v>38.29389146375722</v>
       </c>
       <c r="H4">
-        <v>4.382454568180978</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>3.227548034938561</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143890858</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867847234</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640115</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>2.89843869796008</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>1.629061811536068</v>
+        <v>0.6168272759030893</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.629061811539435</v>
+        <v>0.6168272759106724</v>
       </c>
       <c r="Q4">
-        <v>1.685818496148136</v>
+        <v>-23.63454170168728</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-178.31418150378</v>
+        <v>156.3654582984636</v>
       </c>
       <c r="T4">
-        <v>5.986227633651503</v>
+        <v>6.200555778018478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.783669594725318</v>
+        <v>0.6168272758892142</v>
       </c>
       <c r="O5">
-        <v>0.1622446654284274</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.75386487164067</v>
+        <v>0.6168272759194585</v>
       </c>
       <c r="Q5">
-        <v>3.339296023410447</v>
+        <v>-23.63454170045775</v>
       </c>
       <c r="R5">
-        <v>-99.81934899440158</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>178.1712002134814</v>
+        <v>156.3654582990194</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.783669594725317</v>
+        <v>0.6168272758892139</v>
       </c>
       <c r="O6">
-        <v>0.1622446654284272</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.753864871640669</v>
+        <v>0.6168272759194585</v>
       </c>
       <c r="Q6">
-        <v>3.339296023410446</v>
+        <v>-23.63454170045775</v>
       </c>
       <c r="R6">
-        <v>-99.81934899440158</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>178.1712002134815</v>
+        <v>156.3654582990194</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.114399579579431</v>
+        <v>1.085119466026329</v>
       </c>
       <c r="O2">
-        <v>1.077643487574671</v>
+        <v>1.056966443490433</v>
       </c>
       <c r="P2">
-        <v>1.095197688132231</v>
+        <v>1.073012604801041</v>
       </c>
       <c r="Q2">
-        <v>29.43628747471542</v>
+        <v>28.55247409146676</v>
       </c>
       <c r="R2">
-        <v>-90.64137864236498</v>
+        <v>-91.34292556127178</v>
       </c>
       <c r="S2">
-        <v>151.0636312746676</v>
+        <v>149.9060870231489</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.179506504634781</v>
+        <v>1.0383727798703</v>
       </c>
       <c r="O3">
-        <v>0.9881971306332065</v>
+        <v>0.8910570420401244</v>
       </c>
       <c r="P3">
-        <v>1.073334510055926</v>
+        <v>0.959085185327724</v>
       </c>
       <c r="Q3">
-        <v>27.39981456035545</v>
+        <v>21.80527961679276</v>
       </c>
       <c r="R3">
-        <v>-94.0336003411394</v>
+        <v>-99.16867920487201</v>
       </c>
       <c r="S3">
-        <v>155.6266766935917</v>
+        <v>149.0000007596288</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7416,58 +7416,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.5773463224309</v>
+        <v>1.425313463171979</v>
       </c>
       <c r="D4">
-        <v>1.382601110114781</v>
+        <v>1.229368488193133</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.21362647721493</v>
+        <v>16.4581022328388</v>
       </c>
       <c r="G4">
-        <v>15.96490246213288</v>
+        <v>14.19552455183097</v>
       </c>
       <c r="H4">
-        <v>4.382454568180978</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>3.227548034938561</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143890858</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867847234</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640115</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>2.89843869796008</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>1.190683412475413</v>
+        <v>0.9920972039485565</v>
       </c>
       <c r="O4">
-        <v>0.942767796795738</v>
+        <v>0.8020156209381428</v>
       </c>
       <c r="P4">
-        <v>1.091124420222155</v>
+        <v>0.9179643930775101</v>
       </c>
       <c r="Q4">
-        <v>25.93605076286499</v>
+        <v>20.02025408702195</v>
       </c>
       <c r="R4">
-        <v>-93.87104652403193</v>
+        <v>-99.52967390013555</v>
       </c>
       <c r="S4">
-        <v>157.3694866258371</v>
+        <v>150.5520691986205</v>
       </c>
       <c r="T4">
-        <v>1.29950973514809</v>
+        <v>1.392802299785661</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.220287795753484</v>
+        <v>0.9920972039467663</v>
       </c>
       <c r="O5">
-        <v>0.9723900976922045</v>
+        <v>0.8020156209392318</v>
       </c>
       <c r="P5">
-        <v>1.121084398011932</v>
+        <v>0.9179643930802834</v>
       </c>
       <c r="Q5">
-        <v>26.16147859935542</v>
+        <v>20.02025408726495</v>
       </c>
       <c r="R5">
-        <v>-93.59402119623857</v>
+        <v>-99.52967389962163</v>
       </c>
       <c r="S5">
-        <v>157.3101660386249</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.220287795753484</v>
+        <v>0.9920972039467663</v>
       </c>
       <c r="O6">
-        <v>0.9723900976922045</v>
+        <v>0.8020156209392318</v>
       </c>
       <c r="P6">
-        <v>1.121084398011932</v>
+        <v>0.9179643930802834</v>
       </c>
       <c r="Q6">
-        <v>26.16147859935542</v>
+        <v>20.02025408726495</v>
       </c>
       <c r="R6">
-        <v>-93.59402119623857</v>
+        <v>-99.52967389962163</v>
       </c>
       <c r="S6">
-        <v>157.3101660386249</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.114399579579431</v>
+        <v>1.085119466026329</v>
       </c>
       <c r="O2">
-        <v>1.077643487574671</v>
+        <v>1.056966443490433</v>
       </c>
       <c r="P2">
-        <v>1.095197688132231</v>
+        <v>1.073012604801041</v>
       </c>
       <c r="Q2">
-        <v>29.43628747471542</v>
+        <v>28.55247409146676</v>
       </c>
       <c r="R2">
-        <v>-90.64137864236498</v>
+        <v>-91.34292556127178</v>
       </c>
       <c r="S2">
-        <v>151.0636312746676</v>
+        <v>149.9060870231489</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.179506504634781</v>
+        <v>1.0383727798703</v>
       </c>
       <c r="O3">
-        <v>0.9881971306332065</v>
+        <v>0.8910570420401244</v>
       </c>
       <c r="P3">
-        <v>1.073334510055926</v>
+        <v>0.959085185327724</v>
       </c>
       <c r="Q3">
-        <v>27.39981456035545</v>
+        <v>21.80527961679276</v>
       </c>
       <c r="R3">
-        <v>-94.0336003411394</v>
+        <v>-99.16867920487201</v>
       </c>
       <c r="S3">
-        <v>155.6266766935917</v>
+        <v>149.0000007596288</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7801,58 +7801,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.5773463224309</v>
+        <v>1.425313463171979</v>
       </c>
       <c r="D4">
-        <v>1.382601110114781</v>
+        <v>1.229368488193133</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.21362647721493</v>
+        <v>16.4581022328388</v>
       </c>
       <c r="G4">
-        <v>15.96490246213288</v>
+        <v>14.19552455183097</v>
       </c>
       <c r="H4">
-        <v>4.382454568180978</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>3.227548034938561</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143890858</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867847234</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640115</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>2.89843869796008</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>1.190683412475413</v>
+        <v>0.9920972039485565</v>
       </c>
       <c r="O4">
-        <v>0.942767796795738</v>
+        <v>0.8020156209381428</v>
       </c>
       <c r="P4">
-        <v>1.091124420222155</v>
+        <v>0.9179643930775101</v>
       </c>
       <c r="Q4">
-        <v>25.93605076286499</v>
+        <v>20.02025408702195</v>
       </c>
       <c r="R4">
-        <v>-93.87104652403193</v>
+        <v>-99.52967390013555</v>
       </c>
       <c r="S4">
-        <v>157.3694866258371</v>
+        <v>150.5520691986205</v>
       </c>
       <c r="T4">
-        <v>1.29950973514809</v>
+        <v>1.392802299785661</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.220287795753484</v>
+        <v>0.9920972039467663</v>
       </c>
       <c r="O5">
-        <v>0.9723900976922045</v>
+        <v>0.8020156209392318</v>
       </c>
       <c r="P5">
-        <v>1.121084398011932</v>
+        <v>0.9179643930802834</v>
       </c>
       <c r="Q5">
-        <v>26.16147859935542</v>
+        <v>20.02025408726495</v>
       </c>
       <c r="R5">
-        <v>-93.59402119623857</v>
+        <v>-99.52967389962163</v>
       </c>
       <c r="S5">
-        <v>157.3101660386249</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.220287795753484</v>
+        <v>0.9920972039467663</v>
       </c>
       <c r="O6">
-        <v>0.9723900976922045</v>
+        <v>0.8020156209392318</v>
       </c>
       <c r="P6">
-        <v>1.121084398011932</v>
+        <v>0.9179643930802834</v>
       </c>
       <c r="Q6">
-        <v>26.16147859935542</v>
+        <v>20.02025408726495</v>
       </c>
       <c r="R6">
-        <v>-93.59402119623857</v>
+        <v>-99.52967389962163</v>
       </c>
       <c r="S6">
-        <v>157.3101660386249</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.071588876358479</v>
+        <v>0.9424522314355669</v>
       </c>
       <c r="O2">
-        <v>0.8500049525441131</v>
+        <v>0.850004952538732</v>
       </c>
       <c r="P2">
-        <v>1.006320890102683</v>
+        <v>0.9419013291063386</v>
       </c>
       <c r="Q2">
-        <v>25.44909128771901</v>
+        <v>24.19268348627333</v>
       </c>
       <c r="R2">
-        <v>-92.65381631330388</v>
+        <v>-92.65381631332913</v>
       </c>
       <c r="S2">
-        <v>157.2829226435577</v>
+        <v>150.5659672639323</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.407137641118784</v>
+        <v>0.8654795539534913</v>
       </c>
       <c r="O3">
-        <v>0.3617201835000681</v>
+        <v>0.3617201835037247</v>
       </c>
       <c r="P3">
-        <v>1.139975419290577</v>
+        <v>0.717362391094132</v>
       </c>
       <c r="Q3">
-        <v>13.75337050596883</v>
+        <v>-3.400662761283679</v>
       </c>
       <c r="R3">
-        <v>-129.0915432245468</v>
+        <v>-129.0915432241612</v>
       </c>
       <c r="S3">
-        <v>-177.2953881443198</v>
+        <v>152.4240958953725</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8186,58 +8186,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.493510938986257</v>
+        <v>4.558150608104192</v>
       </c>
       <c r="D4">
-        <v>5.233872983314273</v>
+        <v>2.355372012687772</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>86.52761115598243</v>
+        <v>52.63298961191624</v>
       </c>
       <c r="G4">
-        <v>60.4355595164161</v>
+        <v>27.19749331133992</v>
       </c>
       <c r="H4">
-        <v>6.091511901101016</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>3.212233813552743</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599508825</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560772865</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>1.113751880233296</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>3.006397543745643</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>1.435200364187148</v>
+        <v>0.6716728149593491</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.435200364188468</v>
+        <v>0.6716728149604608</v>
       </c>
       <c r="Q4">
-        <v>3.60976903938049</v>
+        <v>-16.93689964820451</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-176.3902309606532</v>
+        <v>163.0631003512648</v>
       </c>
       <c r="T4">
-        <v>4.168108636357363</v>
+        <v>3.705973963892706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.613669910302261</v>
+        <v>0.6716728149477892</v>
       </c>
       <c r="O5">
-        <v>0.1807244299752659</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.55666572710423</v>
+        <v>0.6716728149724263</v>
       </c>
       <c r="Q5">
-        <v>4.681268482968694</v>
+        <v>-16.93689964647829</v>
       </c>
       <c r="R5">
-        <v>-106.7784602165505</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>178.4784249987026</v>
+        <v>163.0631003511539</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.613669910302261</v>
+        <v>0.6716728149477891</v>
       </c>
       <c r="O6">
-        <v>0.1807244299752661</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.55666572710423</v>
+        <v>0.6716728149724265</v>
       </c>
       <c r="Q6">
-        <v>4.681268482968703</v>
+        <v>-16.93689964647828</v>
       </c>
       <c r="R6">
-        <v>-106.7784602165504</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>178.4784249987026</v>
+        <v>163.0631003511539</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.092464912624774</v>
+        <v>1.056966443490338</v>
       </c>
       <c r="G2">
-        <v>-0.09202130427424153</v>
+        <v>-1.342925561278413</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8440,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.061021327659233</v>
+        <v>0.8910570420386132</v>
       </c>
       <c r="G3">
-        <v>-0.6102523680296662</v>
+        <v>-9.16867920491115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8451,22 +8451,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.711715147193376</v>
+        <v>1.309686024696609</v>
       </c>
       <c r="C4">
-        <v>59.29555206048334</v>
+        <v>45.36885473474868</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354135</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.898438697960064</v>
       </c>
       <c r="F4">
-        <v>1.048207173903214</v>
+        <v>0.8020156209364411</v>
       </c>
       <c r="G4">
-        <v>45.00000000000013</v>
+        <v>45.00000000014394</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375303</v>
       </c>
       <c r="G5">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.5296738996665</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375303</v>
       </c>
       <c r="G6">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.5296738996665</v>
       </c>
     </row>
   </sheetData>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.071588876358479</v>
+        <v>0.9424522314355669</v>
       </c>
       <c r="O2">
-        <v>0.8500049525441131</v>
+        <v>0.850004952538732</v>
       </c>
       <c r="P2">
-        <v>1.006320890102683</v>
+        <v>0.9419013291063386</v>
       </c>
       <c r="Q2">
-        <v>25.44909128771901</v>
+        <v>24.19268348627333</v>
       </c>
       <c r="R2">
-        <v>-92.65381631330388</v>
+        <v>-92.65381631332913</v>
       </c>
       <c r="S2">
-        <v>157.2829226435577</v>
+        <v>150.5659672639323</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.407137641118784</v>
+        <v>0.8654795539534913</v>
       </c>
       <c r="O3">
-        <v>0.3617201835000681</v>
+        <v>0.3617201835037247</v>
       </c>
       <c r="P3">
-        <v>1.139975419290577</v>
+        <v>0.717362391094132</v>
       </c>
       <c r="Q3">
-        <v>13.75337050596883</v>
+        <v>-3.400662761283679</v>
       </c>
       <c r="R3">
-        <v>-129.0915432245468</v>
+        <v>-129.0915432241612</v>
       </c>
       <c r="S3">
-        <v>-177.2953881443198</v>
+        <v>152.4240958953725</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8722,58 +8722,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.493510938986257</v>
+        <v>4.558150608104192</v>
       </c>
       <c r="D4">
-        <v>5.233872983314273</v>
+        <v>2.355372012687772</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>86.52761115598243</v>
+        <v>52.63298961191624</v>
       </c>
       <c r="G4">
-        <v>60.4355595164161</v>
+        <v>27.19749331133992</v>
       </c>
       <c r="H4">
-        <v>6.091511901101016</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>3.212233813552743</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599508825</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560772865</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>1.113751880233296</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>3.006397543745643</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>1.435200364187148</v>
+        <v>0.6716728149593491</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.435200364188468</v>
+        <v>0.6716728149604608</v>
       </c>
       <c r="Q4">
-        <v>3.60976903938049</v>
+        <v>-16.93689964820451</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-176.3902309606532</v>
+        <v>163.0631003512648</v>
       </c>
       <c r="T4">
-        <v>4.168108636357363</v>
+        <v>3.705973963892706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.613669910302261</v>
+        <v>0.6716728149477892</v>
       </c>
       <c r="O5">
-        <v>0.1807244299752659</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.55666572710423</v>
+        <v>0.6716728149724263</v>
       </c>
       <c r="Q5">
-        <v>4.681268482968694</v>
+        <v>-16.93689964647829</v>
       </c>
       <c r="R5">
-        <v>-106.7784602165505</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>178.4784249987026</v>
+        <v>163.0631003511539</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.613669910302261</v>
+        <v>0.6716728149477891</v>
       </c>
       <c r="O6">
-        <v>0.1807244299752661</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.55666572710423</v>
+        <v>0.6716728149724265</v>
       </c>
       <c r="Q6">
-        <v>4.681268482968703</v>
+        <v>-16.93689964647828</v>
       </c>
       <c r="R6">
-        <v>-106.7784602165504</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>178.4784249987026</v>
+        <v>163.0631003511539</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.01345816124533</v>
+        <v>0.9872732704743753</v>
       </c>
       <c r="O2">
-        <v>0.975932570552833</v>
+        <v>0.9581045791303407</v>
       </c>
       <c r="P2">
-        <v>0.9934585232696761</v>
+        <v>0.9742986184078002</v>
       </c>
       <c r="Q2">
-        <v>29.39882376549709</v>
+        <v>28.3548522078124</v>
       </c>
       <c r="R2">
-        <v>-90.71881199547545</v>
+        <v>-91.55789971898027</v>
       </c>
       <c r="S2">
-        <v>151.2157160615966</v>
+        <v>149.8835077627428</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.068508739582963</v>
+        <v>0.9540301184162778</v>
       </c>
       <c r="O3">
-        <v>0.8888142217892173</v>
+        <v>0.8139299031203258</v>
       </c>
       <c r="P3">
-        <v>0.9672135277398859</v>
+        <v>0.8764516590625258</v>
       </c>
       <c r="Q3">
-        <v>27.4247116928728</v>
+        <v>21.54630532481583</v>
       </c>
       <c r="R3">
-        <v>-94.20840025504332</v>
+        <v>-99.65273561736731</v>
       </c>
       <c r="S3">
-        <v>155.9429271765694</v>
+        <v>148.9519453797822</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9107,58 +9107,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.395412681863087</v>
+        <v>1.249557816225953</v>
       </c>
       <c r="D4">
-        <v>1.190974422133079</v>
+        <v>1.031184646681271</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.11283775008542</v>
+        <v>14.42865083132109</v>
       </c>
       <c r="G4">
-        <v>13.75218806432984</v>
+        <v>11.90709466691282</v>
       </c>
       <c r="H4">
-        <v>6.091511901101016</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>3.212233813552743</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599508825</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560772865</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>1.113751880233296</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>3.006397543745643</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>1.06954837097755</v>
+        <v>0.8862366025193016</v>
       </c>
       <c r="O4">
-        <v>0.8312023422592623</v>
+        <v>0.7019303077934285</v>
       </c>
       <c r="P4">
-        <v>1.002204222547917</v>
+        <v>0.8378278209627849</v>
       </c>
       <c r="Q4">
-        <v>25.29856829780967</v>
+        <v>19.95292512464314</v>
       </c>
       <c r="R4">
-        <v>-92.54413265761002</v>
+        <v>-97.63434507042474</v>
       </c>
       <c r="S4">
-        <v>158.129734509189</v>
+        <v>152.0042069778074</v>
       </c>
       <c r="T4">
-        <v>1.097275983306944</v>
+        <v>1.14360122740861</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10707373689732</v>
+        <v>0.8862366025191702</v>
       </c>
       <c r="O5">
-        <v>0.8686074771185301</v>
+        <v>0.7019303077992132</v>
       </c>
       <c r="P5">
-        <v>1.038257096024497</v>
+        <v>0.8378278209677866</v>
       </c>
       <c r="Q5">
-        <v>25.16112288852884</v>
+        <v>19.95292512505613</v>
       </c>
       <c r="R5">
-        <v>-92.8123579589477</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S5">
-        <v>157.5269810714826</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10707373689732</v>
+        <v>0.8862366025191705</v>
       </c>
       <c r="O6">
-        <v>0.8686074771185301</v>
+        <v>0.7019303077992134</v>
       </c>
       <c r="P6">
-        <v>1.038257096024497</v>
+        <v>0.8378278209677866</v>
       </c>
       <c r="Q6">
-        <v>25.16112288852884</v>
+        <v>19.95292512505614</v>
       </c>
       <c r="R6">
-        <v>-92.8123579589477</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S6">
-        <v>157.5269810714826</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.01345816124533</v>
+        <v>0.9872732704743753</v>
       </c>
       <c r="O2">
-        <v>0.975932570552833</v>
+        <v>0.9581045791303407</v>
       </c>
       <c r="P2">
-        <v>0.9934585232696761</v>
+        <v>0.9742986184078002</v>
       </c>
       <c r="Q2">
-        <v>29.39882376549709</v>
+        <v>28.3548522078124</v>
       </c>
       <c r="R2">
-        <v>-90.71881199547545</v>
+        <v>-91.55789971898027</v>
       </c>
       <c r="S2">
-        <v>151.2157160615966</v>
+        <v>149.8835077627428</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.068508739582963</v>
+        <v>0.9540301184162778</v>
       </c>
       <c r="O3">
-        <v>0.8888142217892173</v>
+        <v>0.8139299031203258</v>
       </c>
       <c r="P3">
-        <v>0.9672135277398859</v>
+        <v>0.8764516590625258</v>
       </c>
       <c r="Q3">
-        <v>27.4247116928728</v>
+        <v>21.54630532481583</v>
       </c>
       <c r="R3">
-        <v>-94.20840025504332</v>
+        <v>-99.65273561736731</v>
       </c>
       <c r="S3">
-        <v>155.9429271765694</v>
+        <v>148.9519453797822</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9492,58 +9492,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.395412681863087</v>
+        <v>1.249557816225953</v>
       </c>
       <c r="D4">
-        <v>1.190974422133079</v>
+        <v>1.031184646681271</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.11283775008542</v>
+        <v>14.42865083132109</v>
       </c>
       <c r="G4">
-        <v>13.75218806432984</v>
+        <v>11.90709466691282</v>
       </c>
       <c r="H4">
-        <v>6.091511901101016</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>3.212233813552743</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599508825</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560772865</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>1.113751880233296</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>3.006397543745643</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>1.06954837097755</v>
+        <v>0.8862366025193016</v>
       </c>
       <c r="O4">
-        <v>0.8312023422592623</v>
+        <v>0.7019303077934285</v>
       </c>
       <c r="P4">
-        <v>1.002204222547917</v>
+        <v>0.8378278209627849</v>
       </c>
       <c r="Q4">
-        <v>25.29856829780967</v>
+        <v>19.95292512464314</v>
       </c>
       <c r="R4">
-        <v>-92.54413265761002</v>
+        <v>-97.63434507042474</v>
       </c>
       <c r="S4">
-        <v>158.129734509189</v>
+        <v>152.0042069778074</v>
       </c>
       <c r="T4">
-        <v>1.097275983306944</v>
+        <v>1.14360122740861</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10707373689732</v>
+        <v>0.8862366025191702</v>
       </c>
       <c r="O5">
-        <v>0.8686074771185301</v>
+        <v>0.7019303077992132</v>
       </c>
       <c r="P5">
-        <v>1.038257096024497</v>
+        <v>0.8378278209677866</v>
       </c>
       <c r="Q5">
-        <v>25.16112288852884</v>
+        <v>19.95292512505613</v>
       </c>
       <c r="R5">
-        <v>-92.8123579589477</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S5">
-        <v>157.5269810714826</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10707373689732</v>
+        <v>0.8862366025191705</v>
       </c>
       <c r="O6">
-        <v>0.8686074771185301</v>
+        <v>0.7019303077992134</v>
       </c>
       <c r="P6">
-        <v>1.038257096024497</v>
+        <v>0.8378278209677866</v>
       </c>
       <c r="Q6">
-        <v>25.16112288852884</v>
+        <v>19.95292512505614</v>
       </c>
       <c r="R6">
-        <v>-92.8123579589477</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S6">
-        <v>157.5269810714826</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.092464912624774</v>
+        <v>1.056966443490338</v>
       </c>
       <c r="G2">
-        <v>-0.09202130427424153</v>
+        <v>-1.342925561278413</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.061021327659233</v>
+        <v>0.8910570420386132</v>
       </c>
       <c r="G3">
-        <v>-0.6102523680296662</v>
+        <v>-9.16867920491115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9757,22 +9757,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.711715147193376</v>
+        <v>1.309686024696609</v>
       </c>
       <c r="C4">
-        <v>59.29555206048334</v>
+        <v>45.36885473474868</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354135</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.898438697960064</v>
       </c>
       <c r="F4">
-        <v>1.048207173903214</v>
+        <v>0.8020156209364411</v>
       </c>
       <c r="G4">
-        <v>45.00000000000013</v>
+        <v>45.00000000014394</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375303</v>
       </c>
       <c r="G5">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.5296738996665</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375303</v>
       </c>
       <c r="G6">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.5296738996665</v>
       </c>
     </row>
   </sheetData>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.850004952529848</v>
+        <v>0.850004952531329</v>
       </c>
       <c r="G2">
-        <v>-2.653816313383118</v>
+        <v>-2.653816313408794</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9897,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.361720183494426</v>
+        <v>0.3617201835011323</v>
       </c>
       <c r="G3">
-        <v>-39.09154322576343</v>
+        <v>-39.09154322526825</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9908,22 +9908,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>22.82241822205426</v>
+        <v>3.601610081969431</v>
       </c>
       <c r="C4">
-        <v>790.5917582436749</v>
+        <v>124.7634330204672</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252866</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745608</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>36.29166987222217</v>
+        <v>69.67231643316967</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9943,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.701360595450855E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.701360595450855E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.850004952529848</v>
+        <v>0.850004952531329</v>
       </c>
       <c r="G2">
-        <v>-2.653816313383118</v>
+        <v>-2.653816313408794</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.361720183494426</v>
+        <v>0.3617201835011323</v>
       </c>
       <c r="G3">
-        <v>-39.09154322576343</v>
+        <v>-39.09154322526825</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10059,22 +10059,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>22.82241822205426</v>
+        <v>3.601610081969431</v>
       </c>
       <c r="C4">
-        <v>790.5917582436749</v>
+        <v>124.7634330204672</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252866</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745608</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>36.29166987222217</v>
+        <v>69.67231643316967</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.701360595450855E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.701360595450855E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10176,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9896462235301428</v>
+        <v>0.9581045791269167</v>
       </c>
       <c r="G2">
-        <v>-0.06817904279359996</v>
+        <v>-1.557899718992042</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9503017246662551</v>
+        <v>0.8139299031165271</v>
       </c>
       <c r="G3">
-        <v>-0.4999694690879498</v>
+        <v>-9.652735617430418</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10210,22 +10210,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.525047131727278</v>
+        <v>1.146247392719871</v>
       </c>
       <c r="C4">
-        <v>52.82918232177664</v>
+        <v>39.70717444468345</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252866</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745608</v>
       </c>
       <c r="F4">
-        <v>0.9338968266059345</v>
+        <v>0.7019303077896065</v>
       </c>
       <c r="G4">
-        <v>44.99999999999578</v>
+        <v>44.99999999986812</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953915</v>
       </c>
       <c r="G5">
-        <v>-1.030471009927051E-09</v>
+        <v>-7.63434506981847</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953915</v>
       </c>
       <c r="G6">
-        <v>-1.030471009927052E-09</v>
+        <v>-7.63434506981847</v>
       </c>
     </row>
   </sheetData>
@@ -10327,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9896462235301428</v>
+        <v>0.9581045791269167</v>
       </c>
       <c r="G2">
-        <v>-0.06817904279359996</v>
+        <v>-1.557899718992042</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9503017246662551</v>
+        <v>0.8139299031165271</v>
       </c>
       <c r="G3">
-        <v>-0.4999694690879498</v>
+        <v>-9.652735617430418</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10361,22 +10361,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.525047131727278</v>
+        <v>1.146247392719871</v>
       </c>
       <c r="C4">
-        <v>52.82918232177664</v>
+        <v>39.70717444468345</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252866</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745608</v>
       </c>
       <c r="F4">
-        <v>0.9338968266059345</v>
+        <v>0.7019303077896065</v>
       </c>
       <c r="G4">
-        <v>44.99999999999578</v>
+        <v>44.99999999986812</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953915</v>
       </c>
       <c r="G5">
-        <v>-1.030471009927051E-09</v>
+        <v>-7.63434506981847</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953915</v>
       </c>
       <c r="G6">
-        <v>-1.030471009927052E-09</v>
+        <v>-7.63434506981847</v>
       </c>
     </row>
   </sheetData>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.181382965196239</v>
+        <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009535117</v>
+        <v>0.9380319009574459</v>
       </c>
       <c r="P2">
-        <v>1.144530466370076</v>
+        <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>24.69837977239418</v>
+        <v>25.98965116739707</v>
       </c>
       <c r="R2">
-        <v>-91.13019952200929</v>
+        <v>-91.13019952201601</v>
       </c>
       <c r="S2">
-        <v>157.1622361092741</v>
+        <v>153.5693903185486</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.626957749738977</v>
+        <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.2917056037489121</v>
+        <v>0.2917056037512941</v>
       </c>
       <c r="P3">
-        <v>1.459467066098445</v>
+        <v>0.8906876332644384</v>
       </c>
       <c r="Q3">
-        <v>10.19446565278189</v>
+        <v>7.091324389062534</v>
       </c>
       <c r="R3">
-        <v>-119.171377355038</v>
+        <v>-119.1713773550799</v>
       </c>
       <c r="S3">
-        <v>-178.6946602380477</v>
+        <v>171.7794727726615</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10623,55 +10623,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.695415536672967</v>
+        <v>3.70915442393707</v>
       </c>
       <c r="D4">
-        <v>6.695415536672967</v>
+        <v>3.70915442393707</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>77.3119992486908</v>
+        <v>42.82962610251918</v>
       </c>
       <c r="G4">
-        <v>77.3119992486908</v>
+        <v>42.82962610251918</v>
       </c>
       <c r="H4">
-        <v>4.382454568180978</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>3.227548034938561</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143890858</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867847234</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640115</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>2.89843869796008</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>1.71959410345767</v>
+        <v>0.9526279648032094</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.719594103459495</v>
+        <v>0.9526279648047558</v>
       </c>
       <c r="Q4">
-        <v>2.676535833466165</v>
+        <v>-1.253133125492379E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-177.3234641665197</v>
+        <v>-179.9999999999812</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.837089048521796</v>
+        <v>0.9526279647942856</v>
       </c>
       <c r="O5">
-        <v>0.117783115624338</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.788360982292784</v>
+        <v>0.9526279648136794</v>
       </c>
       <c r="Q5">
-        <v>2.941972212987566</v>
+        <v>4.605063358393287E-10</v>
       </c>
       <c r="R5">
-        <v>-113.1797984827214</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.5518706453219</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.837089048521796</v>
+        <v>0.9526279647942856</v>
       </c>
       <c r="O6">
-        <v>0.117783115624338</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.788360982292784</v>
+        <v>0.9526279648136793</v>
       </c>
       <c r="Q6">
-        <v>2.941972212987561</v>
+        <v>4.605066884408088E-10</v>
       </c>
       <c r="R6">
-        <v>-113.1797984827217</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>179.5518706453219</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
   </sheetData>

--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_2_bus_ward34_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_2_bus_ward34_resistance.xlsx
@@ -814,16 +814,16 @@
         <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512941</v>
+        <v>0.2917056037512944</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644384</v>
+        <v>0.8906876332644389</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062534</v>
+        <v>7.091324389062516</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.1713773550798</v>
       </c>
       <c r="S3">
         <v>171.7794727726615</v>
@@ -837,37 +837,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.70915442393707</v>
+        <v>3.709154423937068</v>
       </c>
       <c r="D4">
-        <v>3.70915442393707</v>
+        <v>3.709154423937068</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251918</v>
+        <v>42.82962610251916</v>
       </c>
       <c r="G4">
-        <v>42.82962610251918</v>
+        <v>42.82962610251916</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.352869559198717</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>0.7138615329189585</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163571233</v>
       </c>
       <c r="K4">
         <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640345</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.898438697960047</v>
       </c>
       <c r="N4">
         <v>0.9526279648032094</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047558</v>
+        <v>0.9526279648047561</v>
       </c>
       <c r="Q4">
-        <v>-1.253133125492379E-11</v>
+        <v>-1.255999921629066E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999813</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942856</v>
+        <v>0.9526279647942857</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648136794</v>
+        <v>0.95262796481368</v>
       </c>
       <c r="Q5">
-        <v>4.605063358393287E-10</v>
+        <v>4.604700738255387E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995312</v>
+        <v>179.9999999995311</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -994,16 +994,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136793</v>
+        <v>0.9526279648136798</v>
       </c>
       <c r="Q6">
-        <v>4.605066884408088E-10</v>
+        <v>4.604762454925335E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995312</v>
+        <v>179.9999999995311</v>
       </c>
     </row>
   </sheetData>
@@ -1181,13 +1181,13 @@
         <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>0.761777901871072</v>
+        <v>0.7617779018710716</v>
       </c>
       <c r="P3">
-        <v>0.9348070984869523</v>
+        <v>0.9348070984869528</v>
       </c>
       <c r="Q3">
-        <v>19.43181595267036</v>
+        <v>19.43181595267034</v>
       </c>
       <c r="R3">
         <v>-104.2565908665021</v>
@@ -1219,34 +1219,34 @@
         <v>20.35837104744277</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.352869559198717</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>0.7138615329189585</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163571233</v>
       </c>
       <c r="K4">
         <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640345</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.898438697960047</v>
       </c>
       <c r="N4">
         <v>1.075852895209832</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551814</v>
+        <v>0.6233452632551812</v>
       </c>
       <c r="P4">
-        <v>0.9229411060011539</v>
+        <v>0.9229411060011543</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943073</v>
+        <v>16.25665454943072</v>
       </c>
       <c r="R4">
         <v>-104.9129785376843</v>
@@ -1299,16 +1299,16 @@
         <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>0.6233452632568746</v>
+        <v>0.6233452632568744</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067911</v>
       </c>
       <c r="Q5">
-        <v>16.25665454962341</v>
+        <v>16.25665454962339</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366567</v>
+        <v>-104.9129785366566</v>
       </c>
       <c r="S5">
         <v>160.9543898286222</v>
@@ -1358,16 +1358,16 @@
         <v>1.075852895205487</v>
       </c>
       <c r="O6">
-        <v>0.6233452632568746</v>
+        <v>0.6233452632568744</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067911</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962341</v>
+        <v>16.25665454962339</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366567</v>
+        <v>-104.9129785366566</v>
       </c>
       <c r="S6">
         <v>160.9543898286222</v>
@@ -1548,13 +1548,13 @@
         <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>0.761777901871072</v>
+        <v>0.7617779018710716</v>
       </c>
       <c r="P3">
-        <v>0.9348070984869523</v>
+        <v>0.9348070984869528</v>
       </c>
       <c r="Q3">
-        <v>19.43181595267036</v>
+        <v>19.43181595267034</v>
       </c>
       <c r="R3">
         <v>-104.2565908665021</v>
@@ -1586,34 +1586,34 @@
         <v>20.35837104744277</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.352869559198717</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>0.7138615329189585</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163571233</v>
       </c>
       <c r="K4">
         <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640345</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.898438697960047</v>
       </c>
       <c r="N4">
         <v>1.075852895209832</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551814</v>
+        <v>0.6233452632551812</v>
       </c>
       <c r="P4">
-        <v>0.9229411060011539</v>
+        <v>0.9229411060011543</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943073</v>
+        <v>16.25665454943072</v>
       </c>
       <c r="R4">
         <v>-104.9129785376843</v>
@@ -1666,16 +1666,16 @@
         <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>0.6233452632568746</v>
+        <v>0.6233452632568744</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067911</v>
       </c>
       <c r="Q5">
-        <v>16.25665454962341</v>
+        <v>16.25665454962339</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366567</v>
+        <v>-104.9129785366566</v>
       </c>
       <c r="S5">
         <v>160.9543898286222</v>
@@ -1725,16 +1725,16 @@
         <v>1.075852895205487</v>
       </c>
       <c r="O6">
-        <v>0.6233452632568746</v>
+        <v>0.6233452632568744</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067911</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962341</v>
+        <v>16.25665454962339</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366567</v>
+        <v>-104.9129785366566</v>
       </c>
       <c r="S6">
         <v>160.9543898286222</v>
@@ -1862,7 +1862,7 @@
         <v>0.9468598309457216</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808851</v>
+        <v>25.60992326808852</v>
       </c>
       <c r="R2">
         <v>-92.65381631331513</v>
@@ -1912,16 +1912,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401370794</v>
+        <v>0.9900703401370791</v>
       </c>
       <c r="O3">
         <v>0.3617201835030114</v>
       </c>
       <c r="P3">
-        <v>0.764971546641112</v>
+        <v>0.7649715466411113</v>
       </c>
       <c r="Q3">
-        <v>8.15088868427442</v>
+        <v>8.150888684274452</v>
       </c>
       <c r="R3">
         <v>-129.0915432241894</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.119085825515527</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="D4">
-        <v>3.119085825515527</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1953,40 +1953,40 @@
         <v>36.01610081973872</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.054587181402296</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>0.6986834516988276</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246193</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.0063975437682</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233323</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745609</v>
       </c>
       <c r="N4">
-        <v>0.8660254037880056</v>
+        <v>0.8660254037880054</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883343</v>
+        <v>0.8660254037883341</v>
       </c>
       <c r="Q4">
-        <v>1.722595345440869E-10</v>
+        <v>1.723179293319138E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998194</v>
+        <v>179.9999999998195</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798931</v>
+        <v>0.8660254037798927</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037964467</v>
+        <v>0.8660254037964464</v>
       </c>
       <c r="Q5">
-        <v>1.080488443850675E-09</v>
+        <v>1.080548447793898E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798931</v>
+        <v>0.8660254037798928</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964467</v>
+        <v>0.8660254037964464</v>
       </c>
       <c r="Q6">
-        <v>1.080506644799812E-09</v>
+        <v>1.080545857709864E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>0.9468598309457216</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808851</v>
+        <v>25.60992326808852</v>
       </c>
       <c r="R2">
         <v>-92.65381631331513</v>
@@ -2279,16 +2279,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401370794</v>
+        <v>0.9900703401370791</v>
       </c>
       <c r="O3">
         <v>0.3617201835030114</v>
       </c>
       <c r="P3">
-        <v>0.764971546641112</v>
+        <v>0.7649715466411113</v>
       </c>
       <c r="Q3">
-        <v>8.15088868427442</v>
+        <v>8.150888684274452</v>
       </c>
       <c r="R3">
         <v>-129.0915432241894</v>
@@ -2305,10 +2305,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.119085825515527</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="D4">
-        <v>3.119085825515527</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2320,40 +2320,40 @@
         <v>36.01610081973872</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.054587181402296</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>0.6986834516988276</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246193</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.0063975437682</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233323</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745609</v>
       </c>
       <c r="N4">
-        <v>0.8660254037880056</v>
+        <v>0.8660254037880054</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883343</v>
+        <v>0.8660254037883341</v>
       </c>
       <c r="Q4">
-        <v>1.722595345440869E-10</v>
+        <v>1.723179293319138E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998194</v>
+        <v>179.9999999998195</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798931</v>
+        <v>0.8660254037798927</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037964467</v>
+        <v>0.8660254037964464</v>
       </c>
       <c r="Q5">
-        <v>1.080488443850675E-09</v>
+        <v>1.080548447793898E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798931</v>
+        <v>0.8660254037798928</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964467</v>
+        <v>0.8660254037964464</v>
       </c>
       <c r="Q6">
-        <v>1.080506644799812E-09</v>
+        <v>1.080545857709864E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>0.9333641900095898</v>
       </c>
       <c r="P2">
-        <v>0.9681777323222119</v>
+        <v>0.9681777323222118</v>
       </c>
       <c r="Q2">
         <v>27.8246974452445</v>
@@ -2652,10 +2652,10 @@
         <v>0.7086876959566593</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941326</v>
+        <v>0.8449321159941322</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474866</v>
+        <v>19.61176266474867</v>
       </c>
       <c r="R3">
         <v>-105.2709110729077</v>
@@ -2687,34 +2687,34 @@
         <v>17.53180025040607</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.054587181402296</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>0.6986834516988276</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246193</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.0063975437682</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233323</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745609</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119605</v>
+        <v>0.9573399675119604</v>
       </c>
       <c r="O4">
         <v>0.5367995610775459</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863314</v>
+        <v>0.8529812840863311</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155591</v>
+        <v>15.93288697155593</v>
       </c>
       <c r="R4">
         <v>-101.7238138495564</v>
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083647</v>
+        <v>0.9573399675083648</v>
       </c>
       <c r="O5">
-        <v>0.5367995610863939</v>
+        <v>0.5367995610863938</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931513</v>
+        <v>0.8529812840931509</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196761</v>
+        <v>15.93288697196763</v>
       </c>
       <c r="R5">
         <v>-101.7238138481949</v>
@@ -2826,13 +2826,13 @@
         <v>0.9573399675083647</v>
       </c>
       <c r="O6">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863938</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931512</v>
+        <v>0.8529812840931507</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196761</v>
+        <v>15.93288697196764</v>
       </c>
       <c r="R6">
         <v>-101.7238138481949</v>
@@ -2960,7 +2960,7 @@
         <v>0.9333641900095898</v>
       </c>
       <c r="P2">
-        <v>0.9681777323222119</v>
+        <v>0.9681777323222118</v>
       </c>
       <c r="Q2">
         <v>27.8246974452445</v>
@@ -3019,10 +3019,10 @@
         <v>0.7086876959566593</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941326</v>
+        <v>0.8449321159941322</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474866</v>
+        <v>19.61176266474867</v>
       </c>
       <c r="R3">
         <v>-105.2709110729077</v>
@@ -3054,34 +3054,34 @@
         <v>17.53180025040607</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.054587181402296</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>0.6986834516988276</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246193</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.0063975437682</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233323</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745609</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119605</v>
+        <v>0.9573399675119604</v>
       </c>
       <c r="O4">
         <v>0.5367995610775459</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863314</v>
+        <v>0.8529812840863311</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155591</v>
+        <v>15.93288697155593</v>
       </c>
       <c r="R4">
         <v>-101.7238138495564</v>
@@ -3131,16 +3131,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083647</v>
+        <v>0.9573399675083648</v>
       </c>
       <c r="O5">
-        <v>0.5367995610863939</v>
+        <v>0.5367995610863938</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931513</v>
+        <v>0.8529812840931509</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196761</v>
+        <v>15.93288697196763</v>
       </c>
       <c r="R5">
         <v>-101.7238138481949</v>
@@ -3193,13 +3193,13 @@
         <v>0.9573399675083647</v>
       </c>
       <c r="O6">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863938</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931512</v>
+        <v>0.8529812840931507</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196761</v>
+        <v>15.93288697196764</v>
       </c>
       <c r="R6">
         <v>-101.7238138481949</v>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9861308108586486</v>
+        <v>1.002857027293595</v>
       </c>
       <c r="O2">
-        <v>1.100000023847537</v>
+        <v>1.100000023847033</v>
       </c>
       <c r="P2">
-        <v>1.028855199037967</v>
+        <v>1.062506027457564</v>
       </c>
       <c r="Q2">
-        <v>31.20178199995176</v>
+        <v>29.5112269328961</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S2">
-        <v>145.0676635123766</v>
+        <v>145.2254781669352</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5017839789834513</v>
+        <v>0.5970451723105064</v>
       </c>
       <c r="O3">
-        <v>1.100000023852248</v>
+        <v>1.100000023852792</v>
       </c>
       <c r="P3">
-        <v>0.8775850755570955</v>
+        <v>1.025442028681017</v>
       </c>
       <c r="Q3">
-        <v>38.79388502419479</v>
+        <v>23.08089300457218</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999655</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S3">
-        <v>116.4647194486009</v>
+        <v>122.3863524679558</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>5.270261429553182</v>
+        <v>4.434332802073334</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>60.85573710104463</v>
+        <v>51.20326473906854</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3430,43 +3430,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567651</v>
+        <v>4.35286955919875</v>
       </c>
       <c r="I4">
-        <v>0.7325309365756871</v>
+        <v>0.7138615329187121</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686238</v>
+        <v>0.6277319162686243</v>
       </c>
       <c r="K4">
-        <v>2.898438697960062</v>
+        <v>2.898438697960071</v>
       </c>
       <c r="L4">
-        <v>0.62773191636399</v>
+        <v>0.6277319163639888</v>
       </c>
       <c r="M4">
-        <v>2.898438697959878</v>
+        <v>2.898438697959818</v>
       </c>
       <c r="N4">
-        <v>0.4179741834732568</v>
+        <v>0.4430132478798684</v>
       </c>
       <c r="O4">
-        <v>1.100000023852248</v>
+        <v>1.100000023852792</v>
       </c>
       <c r="P4">
-        <v>0.7534809345991491</v>
+        <v>0.9417947045638685</v>
       </c>
       <c r="Q4">
-        <v>62.67922138001573</v>
+        <v>32.1949122415512</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999665</v>
+        <v>-89.99999999999717</v>
       </c>
       <c r="S4">
-        <v>104.7500506116007</v>
+        <v>113.4572834745524</v>
       </c>
       <c r="T4">
-        <v>5.270261429553181</v>
+        <v>4.434332802073333</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4179741834901594</v>
+        <v>0.4430132478899412</v>
       </c>
       <c r="O5">
-        <v>1.100000023852248</v>
+        <v>1.100000023852792</v>
       </c>
       <c r="P5">
-        <v>0.7534809345867743</v>
+        <v>0.941794704552413</v>
       </c>
       <c r="Q5">
-        <v>62.67922137998031</v>
+        <v>32.19491224284972</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999682</v>
+        <v>-89.99999999999737</v>
       </c>
       <c r="S5">
-        <v>104.7500506124762</v>
+        <v>113.4572834750651</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4179741834901595</v>
+        <v>0.4430132478899412</v>
       </c>
       <c r="O6">
-        <v>1.100000023852248</v>
+        <v>1.100000023852792</v>
       </c>
       <c r="P6">
-        <v>0.7534809345867743</v>
+        <v>0.9417947045524131</v>
       </c>
       <c r="Q6">
-        <v>62.67922137998029</v>
+        <v>32.19491224284972</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999683</v>
+        <v>-89.99999999999737</v>
       </c>
       <c r="S6">
-        <v>104.7500506124762</v>
+        <v>113.4572834750651</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9861308108586486</v>
+        <v>1.002857027293595</v>
       </c>
       <c r="O2">
-        <v>1.100000023847537</v>
+        <v>1.100000023847033</v>
       </c>
       <c r="P2">
-        <v>1.028855199037967</v>
+        <v>1.062506027457564</v>
       </c>
       <c r="Q2">
-        <v>31.20178199995176</v>
+        <v>29.5112269328961</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S2">
-        <v>145.0676635123766</v>
+        <v>145.2254781669352</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5017839789834513</v>
+        <v>0.5970451723105064</v>
       </c>
       <c r="O3">
-        <v>1.100000023852248</v>
+        <v>1.100000023852792</v>
       </c>
       <c r="P3">
-        <v>0.8775850755570955</v>
+        <v>1.025442028681017</v>
       </c>
       <c r="Q3">
-        <v>38.79388502419479</v>
+        <v>23.08089300457218</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999655</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S3">
-        <v>116.4647194486009</v>
+        <v>122.3863524679558</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>5.270261429553182</v>
+        <v>4.434332802073334</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>60.85573710104463</v>
+        <v>51.20326473906854</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3815,43 +3815,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567651</v>
+        <v>4.35286955919875</v>
       </c>
       <c r="I4">
-        <v>0.7325309365756871</v>
+        <v>0.7138615329187121</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686238</v>
+        <v>0.6277319162686243</v>
       </c>
       <c r="K4">
-        <v>2.898438697960062</v>
+        <v>2.898438697960071</v>
       </c>
       <c r="L4">
-        <v>0.62773191636399</v>
+        <v>0.6277319163639888</v>
       </c>
       <c r="M4">
-        <v>2.898438697959878</v>
+        <v>2.898438697959818</v>
       </c>
       <c r="N4">
-        <v>0.4179741834732568</v>
+        <v>0.4430132478798684</v>
       </c>
       <c r="O4">
-        <v>1.100000023852248</v>
+        <v>1.100000023852792</v>
       </c>
       <c r="P4">
-        <v>0.7534809345991491</v>
+        <v>0.9417947045638685</v>
       </c>
       <c r="Q4">
-        <v>62.67922138001573</v>
+        <v>32.1949122415512</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999665</v>
+        <v>-89.99999999999717</v>
       </c>
       <c r="S4">
-        <v>104.7500506116007</v>
+        <v>113.4572834745524</v>
       </c>
       <c r="T4">
-        <v>5.270261429553181</v>
+        <v>4.434332802073333</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4179741834901594</v>
+        <v>0.4430132478899412</v>
       </c>
       <c r="O5">
-        <v>1.100000023852248</v>
+        <v>1.100000023852792</v>
       </c>
       <c r="P5">
-        <v>0.7534809345867743</v>
+        <v>0.941794704552413</v>
       </c>
       <c r="Q5">
-        <v>62.67922137998031</v>
+        <v>32.19491224284972</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999682</v>
+        <v>-89.99999999999737</v>
       </c>
       <c r="S5">
-        <v>104.7500506124762</v>
+        <v>113.4572834750651</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4179741834901595</v>
+        <v>0.4430132478899412</v>
       </c>
       <c r="O6">
-        <v>1.100000023852248</v>
+        <v>1.100000023852792</v>
       </c>
       <c r="P6">
-        <v>0.7534809345867743</v>
+        <v>0.9417947045524131</v>
       </c>
       <c r="Q6">
-        <v>62.67922137998029</v>
+        <v>32.19491224284972</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999683</v>
+        <v>-89.99999999999737</v>
       </c>
       <c r="S6">
-        <v>104.7500506124762</v>
+        <v>113.4572834750651</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070287335385026</v>
+        <v>1.072144217712705</v>
       </c>
       <c r="O2">
-        <v>1.100000023843436</v>
+        <v>1.100000023843361</v>
       </c>
       <c r="P2">
-        <v>1.087432713371585</v>
+        <v>1.089799066317609</v>
       </c>
       <c r="Q2">
-        <v>29.87894597690854</v>
+        <v>29.78908839589316</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5843831011227</v>
+        <v>148.6274891569913</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.94499511013698</v>
+        <v>0.9553871072069222</v>
       </c>
       <c r="O3">
-        <v>1.100000023845164</v>
+        <v>1.10000002384511</v>
       </c>
       <c r="P3">
-        <v>1.049816937116054</v>
+        <v>1.061377615387177</v>
       </c>
       <c r="Q3">
-        <v>28.77922907069108</v>
+        <v>28.29315913050287</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999649</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S3">
-        <v>142.0890444401773</v>
+        <v>142.4294092838988</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.354590696141222</v>
+        <v>1.279145251240873</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.64146606117794</v>
+        <v>14.77029710273099</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4200,43 +4200,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567651</v>
+        <v>4.35286955919875</v>
       </c>
       <c r="I4">
-        <v>0.7325309365756871</v>
+        <v>0.7138615329187121</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686238</v>
+        <v>0.6277319162686243</v>
       </c>
       <c r="K4">
-        <v>2.898438697960062</v>
+        <v>2.898438697960071</v>
       </c>
       <c r="L4">
-        <v>0.62773191636399</v>
+        <v>0.6277319163639888</v>
       </c>
       <c r="M4">
-        <v>2.898438697959878</v>
+        <v>2.898438697959818</v>
       </c>
       <c r="N4">
-        <v>0.8993131324624146</v>
+        <v>0.9104102170496996</v>
       </c>
       <c r="O4">
-        <v>1.100000023845164</v>
+        <v>1.10000002384511</v>
       </c>
       <c r="P4">
-        <v>1.00754439640636</v>
+        <v>1.023328910654306</v>
       </c>
       <c r="Q4">
-        <v>30.48183270043303</v>
+        <v>29.67659879012504</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999653</v>
+        <v>-89.9999999999966</v>
       </c>
       <c r="S4">
-        <v>140.283523874082</v>
+        <v>140.6206954138772</v>
       </c>
       <c r="T4">
-        <v>1.354590696141222</v>
+        <v>1.279145251240873</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8993131324654359</v>
+        <v>0.9104102170523115</v>
       </c>
       <c r="O5">
-        <v>1.100000023845164</v>
+        <v>1.10000002384511</v>
       </c>
       <c r="P5">
-        <v>1.007544396404445</v>
+        <v>1.023328910652285</v>
       </c>
       <c r="Q5">
-        <v>30.48183270063194</v>
+        <v>29.67659879032414</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S5">
-        <v>140.2835238743037</v>
+        <v>140.6206954140771</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8993131324654359</v>
+        <v>0.9104102170523115</v>
       </c>
       <c r="O6">
-        <v>1.100000023845164</v>
+        <v>1.10000002384511</v>
       </c>
       <c r="P6">
-        <v>1.007544396404445</v>
+        <v>1.023328910652284</v>
       </c>
       <c r="Q6">
-        <v>30.48183270063194</v>
+        <v>29.67659879032414</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S6">
-        <v>140.2835238743037</v>
+        <v>140.6206954140771</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070287335385026</v>
+        <v>1.072144217712705</v>
       </c>
       <c r="O2">
-        <v>1.100000023843436</v>
+        <v>1.100000023843361</v>
       </c>
       <c r="P2">
-        <v>1.087432713371585</v>
+        <v>1.089799066317609</v>
       </c>
       <c r="Q2">
-        <v>29.87894597690854</v>
+        <v>29.78908839589316</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5843831011227</v>
+        <v>148.6274891569913</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.94499511013698</v>
+        <v>0.9553871072069222</v>
       </c>
       <c r="O3">
-        <v>1.100000023845164</v>
+        <v>1.10000002384511</v>
       </c>
       <c r="P3">
-        <v>1.049816937116054</v>
+        <v>1.061377615387177</v>
       </c>
       <c r="Q3">
-        <v>28.77922907069108</v>
+        <v>28.29315913050287</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999649</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S3">
-        <v>142.0890444401773</v>
+        <v>142.4294092838988</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.354590696141222</v>
+        <v>1.279145251240873</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.64146606117794</v>
+        <v>14.77029710273099</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4736,43 +4736,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567651</v>
+        <v>4.35286955919875</v>
       </c>
       <c r="I4">
-        <v>0.7325309365756871</v>
+        <v>0.7138615329187121</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686238</v>
+        <v>0.6277319162686243</v>
       </c>
       <c r="K4">
-        <v>2.898438697960062</v>
+        <v>2.898438697960071</v>
       </c>
       <c r="L4">
-        <v>0.62773191636399</v>
+        <v>0.6277319163639888</v>
       </c>
       <c r="M4">
-        <v>2.898438697959878</v>
+        <v>2.898438697959818</v>
       </c>
       <c r="N4">
-        <v>0.8993131324624146</v>
+        <v>0.9104102170496996</v>
       </c>
       <c r="O4">
-        <v>1.100000023845164</v>
+        <v>1.10000002384511</v>
       </c>
       <c r="P4">
-        <v>1.00754439640636</v>
+        <v>1.023328910654306</v>
       </c>
       <c r="Q4">
-        <v>30.48183270043303</v>
+        <v>29.67659879012504</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999653</v>
+        <v>-89.9999999999966</v>
       </c>
       <c r="S4">
-        <v>140.283523874082</v>
+        <v>140.6206954138772</v>
       </c>
       <c r="T4">
-        <v>1.354590696141222</v>
+        <v>1.279145251240873</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8993131324654359</v>
+        <v>0.9104102170523115</v>
       </c>
       <c r="O5">
-        <v>1.100000023845164</v>
+        <v>1.10000002384511</v>
       </c>
       <c r="P5">
-        <v>1.007544396404445</v>
+        <v>1.023328910652285</v>
       </c>
       <c r="Q5">
-        <v>30.48183270063194</v>
+        <v>29.67659879032414</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S5">
-        <v>140.2835238743037</v>
+        <v>140.6206954140771</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8993131324654359</v>
+        <v>0.9104102170523115</v>
       </c>
       <c r="O6">
-        <v>1.100000023845164</v>
+        <v>1.10000002384511</v>
       </c>
       <c r="P6">
-        <v>1.007544396404445</v>
+        <v>1.023328910652284</v>
       </c>
       <c r="Q6">
-        <v>30.48183270063194</v>
+        <v>29.67659879032414</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S6">
-        <v>140.2835238743037</v>
+        <v>140.6206954140771</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9028326587833732</v>
+        <v>0.9218760956045962</v>
       </c>
       <c r="O2">
-        <v>0.9999999999953423</v>
+        <v>0.9999999999953495</v>
       </c>
       <c r="P2">
-        <v>0.9626941529704611</v>
+        <v>0.9824894637782906</v>
       </c>
       <c r="Q2">
-        <v>29.46991355217288</v>
+        <v>28.67013351966905</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S2">
-        <v>144.7337965372936</v>
+        <v>145.413140499939</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5363499856580267</v>
+        <v>0.638671396474716</v>
       </c>
       <c r="O3">
-        <v>1.00000000000032</v>
+        <v>0.9999999999993153</v>
       </c>
       <c r="P3">
-        <v>0.9313780817015812</v>
+        <v>0.997181324994391</v>
       </c>
       <c r="Q3">
-        <v>23.06203797024838</v>
+        <v>18.8894265035623</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999969</v>
+        <v>-89.99999999999729</v>
       </c>
       <c r="S3">
-        <v>121.9949494734441</v>
+        <v>127.2996755854171</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.902567407462479</v>
+        <v>3.249606626828832</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>45.06296686458244</v>
+        <v>37.52322521520036</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5121,43 +5121,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.55163834448745</v>
+        <v>6.054587181402339</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262186</v>
+        <v>0.6986834516985743</v>
       </c>
       <c r="J4">
-        <v>1.113751880274868</v>
+        <v>1.113751880274856</v>
       </c>
       <c r="K4">
-        <v>3.00639754374561</v>
+        <v>3.006397543745611</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233258</v>
       </c>
       <c r="M4">
-        <v>3.006397543745379</v>
+        <v>3.006397543745307</v>
       </c>
       <c r="N4">
-        <v>0.3976035367747505</v>
+        <v>0.4791475524607504</v>
       </c>
       <c r="O4">
-        <v>1.00000000000032</v>
+        <v>0.9999999999993153</v>
       </c>
       <c r="P4">
-        <v>0.7694482201421926</v>
+        <v>0.8722067543806803</v>
       </c>
       <c r="Q4">
-        <v>45.38254385680958</v>
+        <v>29.29074113174984</v>
       </c>
       <c r="R4">
-        <v>-89.999999999997</v>
+        <v>-89.99999999999739</v>
       </c>
       <c r="S4">
-        <v>111.2809607241676</v>
+        <v>118.627647547574</v>
       </c>
       <c r="T4">
-        <v>3.902567407462479</v>
+        <v>3.249606626828832</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.3976035367946174</v>
+        <v>0.4791475524748564</v>
       </c>
       <c r="O5">
-        <v>1.00000000000032</v>
+        <v>0.9999999999993153</v>
       </c>
       <c r="P5">
-        <v>0.7694482201323417</v>
+        <v>0.8722067543717307</v>
       </c>
       <c r="Q5">
-        <v>45.3825438570837</v>
+        <v>29.29074113280029</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999729</v>
+        <v>-89.99999999999766</v>
       </c>
       <c r="S5">
-        <v>111.2809607254598</v>
+        <v>118.6276475484936</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.3976035367946174</v>
+        <v>0.4791475524748564</v>
       </c>
       <c r="O6">
-        <v>1.00000000000032</v>
+        <v>0.9999999999993153</v>
       </c>
       <c r="P6">
-        <v>0.7694482201323417</v>
+        <v>0.8722067543717309</v>
       </c>
       <c r="Q6">
-        <v>45.38254385708369</v>
+        <v>29.29074113280029</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999729</v>
+        <v>-89.99999999999766</v>
       </c>
       <c r="S6">
-        <v>111.2809607254598</v>
+        <v>118.6276475484936</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9028326587833732</v>
+        <v>0.9218760956045962</v>
       </c>
       <c r="O2">
-        <v>0.9999999999953423</v>
+        <v>0.9999999999953495</v>
       </c>
       <c r="P2">
-        <v>0.9626941529704611</v>
+        <v>0.9824894637782906</v>
       </c>
       <c r="Q2">
-        <v>29.46991355217288</v>
+        <v>28.67013351966905</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S2">
-        <v>144.7337965372936</v>
+        <v>145.413140499939</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5363499856580267</v>
+        <v>0.638671396474716</v>
       </c>
       <c r="O3">
-        <v>1.00000000000032</v>
+        <v>0.9999999999993153</v>
       </c>
       <c r="P3">
-        <v>0.9313780817015812</v>
+        <v>0.997181324994391</v>
       </c>
       <c r="Q3">
-        <v>23.06203797024838</v>
+        <v>18.8894265035623</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999969</v>
+        <v>-89.99999999999729</v>
       </c>
       <c r="S3">
-        <v>121.9949494734441</v>
+        <v>127.2996755854171</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.902567407462479</v>
+        <v>3.249606626828832</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>45.06296686458244</v>
+        <v>37.52322521520036</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5506,43 +5506,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.55163834448745</v>
+        <v>6.054587181402339</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262186</v>
+        <v>0.6986834516985743</v>
       </c>
       <c r="J4">
-        <v>1.113751880274868</v>
+        <v>1.113751880274856</v>
       </c>
       <c r="K4">
-        <v>3.00639754374561</v>
+        <v>3.006397543745611</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233258</v>
       </c>
       <c r="M4">
-        <v>3.006397543745379</v>
+        <v>3.006397543745307</v>
       </c>
       <c r="N4">
-        <v>0.3976035367747505</v>
+        <v>0.4791475524607504</v>
       </c>
       <c r="O4">
-        <v>1.00000000000032</v>
+        <v>0.9999999999993153</v>
       </c>
       <c r="P4">
-        <v>0.7694482201421926</v>
+        <v>0.8722067543806803</v>
       </c>
       <c r="Q4">
-        <v>45.38254385680958</v>
+        <v>29.29074113174984</v>
       </c>
       <c r="R4">
-        <v>-89.999999999997</v>
+        <v>-89.99999999999739</v>
       </c>
       <c r="S4">
-        <v>111.2809607241676</v>
+        <v>118.627647547574</v>
       </c>
       <c r="T4">
-        <v>3.902567407462479</v>
+        <v>3.249606626828832</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.3976035367946174</v>
+        <v>0.4791475524748564</v>
       </c>
       <c r="O5">
-        <v>1.00000000000032</v>
+        <v>0.9999999999993153</v>
       </c>
       <c r="P5">
-        <v>0.7694482201323417</v>
+        <v>0.8722067543717307</v>
       </c>
       <c r="Q5">
-        <v>45.3825438570837</v>
+        <v>29.29074113280029</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999729</v>
+        <v>-89.99999999999766</v>
       </c>
       <c r="S5">
-        <v>111.2809607254598</v>
+        <v>118.6276475484936</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.3976035367946174</v>
+        <v>0.4791475524748564</v>
       </c>
       <c r="O6">
-        <v>1.00000000000032</v>
+        <v>0.9999999999993153</v>
       </c>
       <c r="P6">
-        <v>0.7694482201323417</v>
+        <v>0.8722067543717309</v>
       </c>
       <c r="Q6">
-        <v>45.38254385708369</v>
+        <v>29.29074113280029</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999729</v>
+        <v>-89.99999999999766</v>
       </c>
       <c r="S6">
-        <v>111.2809607254598</v>
+        <v>118.6276475484936</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9714894419843783</v>
+        <v>0.9733369958528796</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985384</v>
+        <v>0.9999999999985365</v>
       </c>
       <c r="P2">
-        <v>0.9895711899749619</v>
+        <v>0.99160779009355</v>
       </c>
       <c r="Q2">
-        <v>29.76366881512976</v>
+        <v>29.68652845861623</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.453800399059</v>
+        <v>148.5110518492317</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8636183456042644</v>
+        <v>0.8730412466996771</v>
       </c>
       <c r="O3">
-        <v>0.9999999999999917</v>
+        <v>0.9999999999998958</v>
       </c>
       <c r="P3">
-        <v>0.9636262065017435</v>
+        <v>0.9725951150411758</v>
       </c>
       <c r="Q3">
-        <v>28.23968561661016</v>
+        <v>27.87088327911966</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999663</v>
       </c>
       <c r="S3">
-        <v>142.1430813749406</v>
+        <v>142.5154636014709</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.151958685387573</v>
+        <v>1.088154926132675</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.30167314207686</v>
+        <v>12.56493079045434</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5891,43 +5891,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.55163834448745</v>
+        <v>6.054587181402339</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262186</v>
+        <v>0.6986834516985743</v>
       </c>
       <c r="J4">
-        <v>1.113751880274868</v>
+        <v>1.113751880274856</v>
       </c>
       <c r="K4">
-        <v>3.00639754374561</v>
+        <v>3.006397543745611</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233258</v>
       </c>
       <c r="M4">
-        <v>3.006397543745379</v>
+        <v>3.006397543745307</v>
       </c>
       <c r="N4">
-        <v>0.8168453072499234</v>
+        <v>0.8259214347452433</v>
       </c>
       <c r="O4">
-        <v>0.9999999999999918</v>
+        <v>0.9999999999998958</v>
       </c>
       <c r="P4">
-        <v>0.9021094454740588</v>
+        <v>0.9158303952900111</v>
       </c>
       <c r="Q4">
-        <v>31.49316412544034</v>
+        <v>30.7025908329594</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999656</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S4">
-        <v>140.5435759540181</v>
+        <v>140.8429433362371</v>
       </c>
       <c r="T4">
-        <v>1.151958685387573</v>
+        <v>1.088154926132674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8168453072553684</v>
+        <v>0.8259214347502222</v>
       </c>
       <c r="O5">
-        <v>0.9999999999999918</v>
+        <v>0.9999999999998958</v>
       </c>
       <c r="P5">
-        <v>0.9021094454737091</v>
+        <v>0.9158303952893913</v>
       </c>
       <c r="Q5">
-        <v>31.4931641255981</v>
+        <v>30.70259083313178</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999666</v>
+        <v>-89.99999999999676</v>
       </c>
       <c r="S5">
-        <v>140.5435759543916</v>
+        <v>140.842943336583</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8168453072553683</v>
+        <v>0.8259214347502222</v>
       </c>
       <c r="O6">
-        <v>0.9999999999999918</v>
+        <v>0.9999999999998958</v>
       </c>
       <c r="P6">
-        <v>0.9021094454737091</v>
+        <v>0.9158303952893913</v>
       </c>
       <c r="Q6">
-        <v>31.4931641255981</v>
+        <v>30.70259083313178</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999666</v>
+        <v>-89.99999999999676</v>
       </c>
       <c r="S6">
-        <v>140.5435759543916</v>
+        <v>140.842943336583</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9714894419843783</v>
+        <v>0.9733369958528796</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985384</v>
+        <v>0.9999999999985365</v>
       </c>
       <c r="P2">
-        <v>0.9895711899749619</v>
+        <v>0.99160779009355</v>
       </c>
       <c r="Q2">
-        <v>29.76366881512976</v>
+        <v>29.68652845861623</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.453800399059</v>
+        <v>148.5110518492317</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8636183456042644</v>
+        <v>0.8730412466996771</v>
       </c>
       <c r="O3">
-        <v>0.9999999999999917</v>
+        <v>0.9999999999998958</v>
       </c>
       <c r="P3">
-        <v>0.9636262065017435</v>
+        <v>0.9725951150411758</v>
       </c>
       <c r="Q3">
-        <v>28.23968561661016</v>
+        <v>27.87088327911966</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999663</v>
       </c>
       <c r="S3">
-        <v>142.1430813749406</v>
+        <v>142.5154636014709</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.151958685387573</v>
+        <v>1.088154926132675</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.30167314207686</v>
+        <v>12.56493079045434</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6276,43 +6276,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.55163834448745</v>
+        <v>6.054587181402339</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262186</v>
+        <v>0.6986834516985743</v>
       </c>
       <c r="J4">
-        <v>1.113751880274868</v>
+        <v>1.113751880274856</v>
       </c>
       <c r="K4">
-        <v>3.00639754374561</v>
+        <v>3.006397543745611</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233258</v>
       </c>
       <c r="M4">
-        <v>3.006397543745379</v>
+        <v>3.006397543745307</v>
       </c>
       <c r="N4">
-        <v>0.8168453072499234</v>
+        <v>0.8259214347452433</v>
       </c>
       <c r="O4">
-        <v>0.9999999999999918</v>
+        <v>0.9999999999998958</v>
       </c>
       <c r="P4">
-        <v>0.9021094454740588</v>
+        <v>0.9158303952900111</v>
       </c>
       <c r="Q4">
-        <v>31.49316412544034</v>
+        <v>30.7025908329594</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999656</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S4">
-        <v>140.5435759540181</v>
+        <v>140.8429433362371</v>
       </c>
       <c r="T4">
-        <v>1.151958685387573</v>
+        <v>1.088154926132674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8168453072553684</v>
+        <v>0.8259214347502222</v>
       </c>
       <c r="O5">
-        <v>0.9999999999999918</v>
+        <v>0.9999999999998958</v>
       </c>
       <c r="P5">
-        <v>0.9021094454737091</v>
+        <v>0.9158303952893913</v>
       </c>
       <c r="Q5">
-        <v>31.4931641255981</v>
+        <v>30.70259083313178</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999666</v>
+        <v>-89.99999999999676</v>
       </c>
       <c r="S5">
-        <v>140.5435759543916</v>
+        <v>140.842943336583</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8168453072553683</v>
+        <v>0.8259214347502222</v>
       </c>
       <c r="O6">
-        <v>0.9999999999999918</v>
+        <v>0.9999999999998958</v>
       </c>
       <c r="P6">
-        <v>0.9021094454737091</v>
+        <v>0.9158303952893913</v>
       </c>
       <c r="Q6">
-        <v>31.4931641255981</v>
+        <v>30.70259083313178</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999666</v>
+        <v>-89.99999999999676</v>
       </c>
       <c r="S6">
-        <v>140.5435759543916</v>
+        <v>140.842943336583</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.003771146437942</v>
+        <v>1.036333964104421</v>
       </c>
       <c r="O2">
-        <v>0.9380319009600877</v>
+        <v>0.9380319009588282</v>
       </c>
       <c r="P2">
-        <v>1.027066586988846</v>
+        <v>1.051332712830759</v>
       </c>
       <c r="Q2">
-        <v>25.10974688705308</v>
+        <v>24.74847270532717</v>
       </c>
       <c r="R2">
-        <v>-91.1301995219643</v>
+        <v>-91.13019952199984</v>
       </c>
       <c r="S2">
-        <v>150.105434766502</v>
+        <v>151.3541321415091</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7662234980466637</v>
+        <v>0.9268759123840011</v>
       </c>
       <c r="O3">
-        <v>0.2917056037515682</v>
+        <v>0.291705603752042</v>
       </c>
       <c r="P3">
-        <v>0.7170203818791413</v>
+        <v>0.8443934705425505</v>
       </c>
       <c r="Q3">
-        <v>-8.463037977617292</v>
+        <v>-3.859996244527402</v>
       </c>
       <c r="R3">
-        <v>-119.1713773541731</v>
+        <v>-119.1713773547604</v>
       </c>
       <c r="S3">
-        <v>149.1694533067009</v>
+        <v>157.9423171242929</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6646,58 +6646,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.978372114037349</v>
+        <v>5.305427867834755</v>
       </c>
       <c r="D4">
-        <v>3.316348281737781</v>
+        <v>2.495633941990696</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>69.03229498710431</v>
+        <v>61.26180415321077</v>
       </c>
       <c r="G4">
-        <v>38.29389146375722</v>
+        <v>28.81709856414191</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.352869559198717</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>0.7138615329189585</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163571233</v>
       </c>
       <c r="K4">
         <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640345</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.898438697960047</v>
       </c>
       <c r="N4">
-        <v>0.6168272759030893</v>
+        <v>0.8169377828780486</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6168272759106724</v>
+        <v>0.8169377828816784</v>
       </c>
       <c r="Q4">
-        <v>-23.63454170168728</v>
+        <v>-15.5547351699868</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>156.3654582984636</v>
+        <v>164.4452648300586</v>
       </c>
       <c r="T4">
-        <v>6.200555778018478</v>
+        <v>3.704078981813845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6168272758892142</v>
+        <v>0.8169377828646325</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6168272759194585</v>
+        <v>0.8169377828896776</v>
       </c>
       <c r="Q5">
-        <v>-23.63454170045775</v>
+        <v>-15.55473516925248</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>156.3654582990194</v>
+        <v>164.4452648300659</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6168272758892139</v>
+        <v>0.8169377828646325</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6168272759194585</v>
+        <v>0.8169377828896779</v>
       </c>
       <c r="Q6">
-        <v>-23.63454170045775</v>
+        <v>-15.55473516925247</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>156.3654582990194</v>
+        <v>164.4452648300659</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.003771146437942</v>
+        <v>1.036333964104421</v>
       </c>
       <c r="O2">
-        <v>0.9380319009600877</v>
+        <v>0.9380319009588282</v>
       </c>
       <c r="P2">
-        <v>1.027066586988846</v>
+        <v>1.051332712830759</v>
       </c>
       <c r="Q2">
-        <v>25.10974688705308</v>
+        <v>24.74847270532717</v>
       </c>
       <c r="R2">
-        <v>-91.1301995219643</v>
+        <v>-91.13019952199984</v>
       </c>
       <c r="S2">
-        <v>150.105434766502</v>
+        <v>151.3541321415091</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7662234980466637</v>
+        <v>0.9268759123840011</v>
       </c>
       <c r="O3">
-        <v>0.2917056037515682</v>
+        <v>0.291705603752042</v>
       </c>
       <c r="P3">
-        <v>0.7170203818791413</v>
+        <v>0.8443934705425505</v>
       </c>
       <c r="Q3">
-        <v>-8.463037977617292</v>
+        <v>-3.859996244527402</v>
       </c>
       <c r="R3">
-        <v>-119.1713773541731</v>
+        <v>-119.1713773547604</v>
       </c>
       <c r="S3">
-        <v>149.1694533067009</v>
+        <v>157.9423171242929</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7031,58 +7031,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.978372114037349</v>
+        <v>5.305427867834755</v>
       </c>
       <c r="D4">
-        <v>3.316348281737781</v>
+        <v>2.495633941990696</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>69.03229498710431</v>
+        <v>61.26180415321077</v>
       </c>
       <c r="G4">
-        <v>38.29389146375722</v>
+        <v>28.81709856414191</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.352869559198717</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>0.7138615329189585</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163571233</v>
       </c>
       <c r="K4">
         <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640345</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.898438697960047</v>
       </c>
       <c r="N4">
-        <v>0.6168272759030893</v>
+        <v>0.8169377828780486</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6168272759106724</v>
+        <v>0.8169377828816784</v>
       </c>
       <c r="Q4">
-        <v>-23.63454170168728</v>
+        <v>-15.5547351699868</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>156.3654582984636</v>
+        <v>164.4452648300586</v>
       </c>
       <c r="T4">
-        <v>6.200555778018478</v>
+        <v>3.704078981813845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6168272758892142</v>
+        <v>0.8169377828646325</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6168272759194585</v>
+        <v>0.8169377828896776</v>
       </c>
       <c r="Q5">
-        <v>-23.63454170045775</v>
+        <v>-15.55473516925248</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>156.3654582990194</v>
+        <v>164.4452648300659</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6168272758892139</v>
+        <v>0.8169377828646325</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6168272759194585</v>
+        <v>0.8169377828896779</v>
       </c>
       <c r="Q6">
-        <v>-23.63454170045775</v>
+        <v>-15.55473516925247</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>156.3654582990194</v>
+        <v>164.4452648300659</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.085119466026329</v>
+        <v>1.087295347461227</v>
       </c>
       <c r="O2">
-        <v>1.056966443490433</v>
+        <v>1.056966443490345</v>
       </c>
       <c r="P2">
-        <v>1.073012604801041</v>
+        <v>1.075141250775194</v>
       </c>
       <c r="Q2">
-        <v>28.55247409146676</v>
+        <v>28.49100862029954</v>
       </c>
       <c r="R2">
-        <v>-91.34292556127178</v>
+        <v>-91.34292556127252</v>
       </c>
       <c r="S2">
-        <v>149.9060870231489</v>
+        <v>149.972738425628</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.0383727798703</v>
+        <v>1.050680575323055</v>
       </c>
       <c r="O3">
-        <v>0.8910570420401244</v>
+        <v>0.8910570420400457</v>
       </c>
       <c r="P3">
-        <v>0.959085185327724</v>
+        <v>0.9698106269943798</v>
       </c>
       <c r="Q3">
-        <v>21.80527961679276</v>
+        <v>21.58195466947881</v>
       </c>
       <c r="R3">
-        <v>-99.16867920487201</v>
+        <v>-99.1686792048765</v>
       </c>
       <c r="S3">
-        <v>149.0000007596288</v>
+        <v>149.4325926897574</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7416,58 +7416,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.425313463171979</v>
+        <v>1.430887439842274</v>
       </c>
       <c r="D4">
-        <v>1.229368488193133</v>
+        <v>1.130189027068587</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.4581022328388</v>
+        <v>16.52246497145983</v>
       </c>
       <c r="G4">
-        <v>14.19552455183097</v>
+        <v>13.0502987802642</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.352869559198717</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>0.7138615329189585</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163571233</v>
       </c>
       <c r="K4">
         <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640345</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.898438697960047</v>
       </c>
       <c r="N4">
-        <v>0.9920972039485565</v>
+        <v>1.007053694139677</v>
       </c>
       <c r="O4">
-        <v>0.8020156209381428</v>
+        <v>0.8020156209380689</v>
       </c>
       <c r="P4">
-        <v>0.9179643930775101</v>
+        <v>0.9332682570851549</v>
       </c>
       <c r="Q4">
-        <v>20.02025408702195</v>
+        <v>19.60267823920365</v>
       </c>
       <c r="R4">
-        <v>-99.52967390013555</v>
+        <v>-99.52967390014233</v>
       </c>
       <c r="S4">
-        <v>150.5520691986205</v>
+        <v>150.9558894423128</v>
       </c>
       <c r="T4">
-        <v>1.392802299785661</v>
+        <v>1.226254359818799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9920972039467663</v>
+        <v>1.007053694137525</v>
       </c>
       <c r="O5">
-        <v>0.8020156209392318</v>
+        <v>0.8020156209391579</v>
       </c>
       <c r="P5">
-        <v>0.9179643930802834</v>
+        <v>0.9332682570878338</v>
       </c>
       <c r="Q5">
-        <v>20.02025408726495</v>
+        <v>19.60267823943433</v>
       </c>
       <c r="R5">
-        <v>-99.52967389962163</v>
+        <v>-99.52967389962839</v>
       </c>
       <c r="S5">
-        <v>150.5520691987953</v>
+        <v>150.9558894424626</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9920972039467663</v>
+        <v>1.007053694137525</v>
       </c>
       <c r="O6">
-        <v>0.8020156209392318</v>
+        <v>0.8020156209391579</v>
       </c>
       <c r="P6">
-        <v>0.9179643930802834</v>
+        <v>0.9332682570878339</v>
       </c>
       <c r="Q6">
-        <v>20.02025408726495</v>
+        <v>19.60267823943433</v>
       </c>
       <c r="R6">
-        <v>-99.52967389962163</v>
+        <v>-99.52967389962839</v>
       </c>
       <c r="S6">
-        <v>150.5520691987953</v>
+        <v>150.9558894424626</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.085119466026329</v>
+        <v>1.087295347461227</v>
       </c>
       <c r="O2">
-        <v>1.056966443490433</v>
+        <v>1.056966443490345</v>
       </c>
       <c r="P2">
-        <v>1.073012604801041</v>
+        <v>1.075141250775194</v>
       </c>
       <c r="Q2">
-        <v>28.55247409146676</v>
+        <v>28.49100862029954</v>
       </c>
       <c r="R2">
-        <v>-91.34292556127178</v>
+        <v>-91.34292556127252</v>
       </c>
       <c r="S2">
-        <v>149.9060870231489</v>
+        <v>149.972738425628</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.0383727798703</v>
+        <v>1.050680575323055</v>
       </c>
       <c r="O3">
-        <v>0.8910570420401244</v>
+        <v>0.8910570420400457</v>
       </c>
       <c r="P3">
-        <v>0.959085185327724</v>
+        <v>0.9698106269943798</v>
       </c>
       <c r="Q3">
-        <v>21.80527961679276</v>
+        <v>21.58195466947881</v>
       </c>
       <c r="R3">
-        <v>-99.16867920487201</v>
+        <v>-99.1686792048765</v>
       </c>
       <c r="S3">
-        <v>149.0000007596288</v>
+        <v>149.4325926897574</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7801,58 +7801,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.425313463171979</v>
+        <v>1.430887439842274</v>
       </c>
       <c r="D4">
-        <v>1.229368488193133</v>
+        <v>1.130189027068587</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.4581022328388</v>
+        <v>16.52246497145983</v>
       </c>
       <c r="G4">
-        <v>14.19552455183097</v>
+        <v>13.0502987802642</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.352869559198717</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>0.7138615329189585</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163571233</v>
       </c>
       <c r="K4">
         <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640345</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.898438697960047</v>
       </c>
       <c r="N4">
-        <v>0.9920972039485565</v>
+        <v>1.007053694139677</v>
       </c>
       <c r="O4">
-        <v>0.8020156209381428</v>
+        <v>0.8020156209380689</v>
       </c>
       <c r="P4">
-        <v>0.9179643930775101</v>
+        <v>0.9332682570851549</v>
       </c>
       <c r="Q4">
-        <v>20.02025408702195</v>
+        <v>19.60267823920365</v>
       </c>
       <c r="R4">
-        <v>-99.52967390013555</v>
+        <v>-99.52967390014233</v>
       </c>
       <c r="S4">
-        <v>150.5520691986205</v>
+        <v>150.9558894423128</v>
       </c>
       <c r="T4">
-        <v>1.392802299785661</v>
+        <v>1.226254359818799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9920972039467663</v>
+        <v>1.007053694137525</v>
       </c>
       <c r="O5">
-        <v>0.8020156209392318</v>
+        <v>0.8020156209391579</v>
       </c>
       <c r="P5">
-        <v>0.9179643930802834</v>
+        <v>0.9332682570878338</v>
       </c>
       <c r="Q5">
-        <v>20.02025408726495</v>
+        <v>19.60267823943433</v>
       </c>
       <c r="R5">
-        <v>-99.52967389962163</v>
+        <v>-99.52967389962839</v>
       </c>
       <c r="S5">
-        <v>150.5520691987953</v>
+        <v>150.9558894424626</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9920972039467663</v>
+        <v>1.007053694137525</v>
       </c>
       <c r="O6">
-        <v>0.8020156209392318</v>
+        <v>0.8020156209391579</v>
       </c>
       <c r="P6">
-        <v>0.9179643930802834</v>
+        <v>0.9332682570878339</v>
       </c>
       <c r="Q6">
-        <v>20.02025408726495</v>
+        <v>19.60267823943433</v>
       </c>
       <c r="R6">
-        <v>-99.52967389962163</v>
+        <v>-99.52967389962839</v>
       </c>
       <c r="S6">
-        <v>150.5520691987953</v>
+        <v>150.9558894424626</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9424522314355669</v>
+        <v>0.9586973725440984</v>
       </c>
       <c r="O2">
-        <v>0.850004952538732</v>
+        <v>0.8500049525394496</v>
       </c>
       <c r="P2">
-        <v>0.9419013291063386</v>
+        <v>0.9487278023601172</v>
       </c>
       <c r="Q2">
-        <v>24.19268348627333</v>
+        <v>24.40985027664752</v>
       </c>
       <c r="R2">
-        <v>-92.65381631332913</v>
+        <v>-92.65381631332239</v>
       </c>
       <c r="S2">
-        <v>150.5659672639323</v>
+        <v>151.4857510359615</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8654795539534913</v>
+        <v>0.9258235925110827</v>
       </c>
       <c r="O3">
-        <v>0.3617201835037247</v>
+        <v>0.3617201835031261</v>
       </c>
       <c r="P3">
-        <v>0.717362391094132</v>
+        <v>0.752033580303193</v>
       </c>
       <c r="Q3">
-        <v>-3.400662761283679</v>
+        <v>0.01103933017897509</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241612</v>
+        <v>-129.0915432241774</v>
       </c>
       <c r="S3">
-        <v>152.4240958953725</v>
+        <v>158.0944491344737</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8186,58 +8186,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.558150608104192</v>
+        <v>4.161677960602251</v>
       </c>
       <c r="D4">
-        <v>2.355372012687772</v>
+        <v>2.286221470924077</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>52.63298961191624</v>
+        <v>48.05491781668485</v>
       </c>
       <c r="G4">
-        <v>27.19749331133992</v>
+        <v>26.39901163330236</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.054587181402296</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>0.6986834516988276</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246193</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.0063975437682</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233323</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745609</v>
       </c>
       <c r="N4">
-        <v>0.6716728149593491</v>
+        <v>0.7574423891010629</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6716728149604608</v>
+        <v>0.7574423891020845</v>
       </c>
       <c r="Q4">
-        <v>-16.93689964820451</v>
+        <v>-11.83715968811539</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>163.0631003512648</v>
+        <v>168.1628403114572</v>
       </c>
       <c r="T4">
-        <v>3.705973963892706</v>
+        <v>2.485549954463866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6716728149477892</v>
+        <v>0.7574423890898918</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6716728149724263</v>
+        <v>0.7574423891124296</v>
       </c>
       <c r="Q5">
-        <v>-16.93689964647829</v>
+        <v>-11.83715968674543</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>163.0631003511539</v>
+        <v>168.1628403110463</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6716728149477891</v>
+        <v>0.7574423890898919</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6716728149724265</v>
+        <v>0.7574423891124296</v>
       </c>
       <c r="Q6">
-        <v>-16.93689964647828</v>
+        <v>-11.83715968674543</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>163.0631003511539</v>
+        <v>168.1628403110463</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9424522314355669</v>
+        <v>0.9586973725440984</v>
       </c>
       <c r="O2">
-        <v>0.850004952538732</v>
+        <v>0.8500049525394496</v>
       </c>
       <c r="P2">
-        <v>0.9419013291063386</v>
+        <v>0.9487278023601172</v>
       </c>
       <c r="Q2">
-        <v>24.19268348627333</v>
+        <v>24.40985027664752</v>
       </c>
       <c r="R2">
-        <v>-92.65381631332913</v>
+        <v>-92.65381631332239</v>
       </c>
       <c r="S2">
-        <v>150.5659672639323</v>
+        <v>151.4857510359615</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8654795539534913</v>
+        <v>0.9258235925110827</v>
       </c>
       <c r="O3">
-        <v>0.3617201835037247</v>
+        <v>0.3617201835031261</v>
       </c>
       <c r="P3">
-        <v>0.717362391094132</v>
+        <v>0.752033580303193</v>
       </c>
       <c r="Q3">
-        <v>-3.400662761283679</v>
+        <v>0.01103933017897509</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241612</v>
+        <v>-129.0915432241774</v>
       </c>
       <c r="S3">
-        <v>152.4240958953725</v>
+        <v>158.0944491344737</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8722,58 +8722,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.558150608104192</v>
+        <v>4.161677960602251</v>
       </c>
       <c r="D4">
-        <v>2.355372012687772</v>
+        <v>2.286221470924077</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>52.63298961191624</v>
+        <v>48.05491781668485</v>
       </c>
       <c r="G4">
-        <v>27.19749331133992</v>
+        <v>26.39901163330236</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.054587181402296</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>0.6986834516988276</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246193</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.0063975437682</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233323</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745609</v>
       </c>
       <c r="N4">
-        <v>0.6716728149593491</v>
+        <v>0.7574423891010629</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6716728149604608</v>
+        <v>0.7574423891020845</v>
       </c>
       <c r="Q4">
-        <v>-16.93689964820451</v>
+        <v>-11.83715968811539</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>163.0631003512648</v>
+        <v>168.1628403114572</v>
       </c>
       <c r="T4">
-        <v>3.705973963892706</v>
+        <v>2.485549954463866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6716728149477892</v>
+        <v>0.7574423890898918</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6716728149724263</v>
+        <v>0.7574423891124296</v>
       </c>
       <c r="Q5">
-        <v>-16.93689964647829</v>
+        <v>-11.83715968674543</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>163.0631003511539</v>
+        <v>168.1628403110463</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6716728149477891</v>
+        <v>0.7574423890898919</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6716728149724265</v>
+        <v>0.7574423891124296</v>
       </c>
       <c r="Q6">
-        <v>-16.93689964647828</v>
+        <v>-11.83715968674543</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>163.0631003511539</v>
+        <v>168.1628403110463</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9872732704743753</v>
+        <v>0.9892475576218941</v>
       </c>
       <c r="O2">
-        <v>0.9581045791303407</v>
+        <v>0.9581045791303752</v>
       </c>
       <c r="P2">
-        <v>0.9742986184078002</v>
+        <v>0.9759155118998309</v>
       </c>
       <c r="Q2">
-        <v>28.3548522078124</v>
+        <v>28.31518920031191</v>
       </c>
       <c r="R2">
-        <v>-91.55789971898027</v>
+        <v>-91.55789971898001</v>
       </c>
       <c r="S2">
-        <v>149.8835077627428</v>
+        <v>149.9612709895297</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9540301184162778</v>
+        <v>0.9640067470009921</v>
       </c>
       <c r="O3">
-        <v>0.8139299031203258</v>
+        <v>0.8139299031202379</v>
       </c>
       <c r="P3">
-        <v>0.8764516590625258</v>
+        <v>0.8838423847144834</v>
       </c>
       <c r="Q3">
-        <v>21.54630532481583</v>
+        <v>21.44873099487974</v>
       </c>
       <c r="R3">
-        <v>-99.65273561736731</v>
+        <v>-99.65273561736721</v>
       </c>
       <c r="S3">
-        <v>148.9519453797822</v>
+        <v>149.4009734262428</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9107,58 +9107,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.249557816225953</v>
+        <v>1.246395875192492</v>
       </c>
       <c r="D4">
-        <v>1.031184646681271</v>
+        <v>0.9637497685099665</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.42865083132109</v>
+        <v>14.39213988118449</v>
       </c>
       <c r="G4">
-        <v>11.90709466691282</v>
+        <v>11.12842376561338</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.054587181402296</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>0.6986834516988276</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246193</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.0063975437682</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233323</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745609</v>
       </c>
       <c r="N4">
-        <v>0.8862366025193016</v>
+        <v>0.8983630021765802</v>
       </c>
       <c r="O4">
-        <v>0.7019303077934285</v>
+        <v>0.7019303077933405</v>
       </c>
       <c r="P4">
-        <v>0.8378278209627849</v>
+        <v>0.8502123288715635</v>
       </c>
       <c r="Q4">
-        <v>19.95292512464314</v>
+        <v>19.58711531871856</v>
       </c>
       <c r="R4">
-        <v>-97.63434507042474</v>
+        <v>-97.63434507042344</v>
       </c>
       <c r="S4">
-        <v>152.0042069778074</v>
+        <v>152.3512071590727</v>
       </c>
       <c r="T4">
-        <v>1.14360122740861</v>
+        <v>1.011426384886665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8862366025191702</v>
+        <v>0.8983630021759832</v>
       </c>
       <c r="O5">
-        <v>0.7019303077992132</v>
+        <v>0.7019303077991252</v>
       </c>
       <c r="P5">
-        <v>0.8378278209677866</v>
+        <v>0.8502123288763171</v>
       </c>
       <c r="Q5">
-        <v>19.95292512505613</v>
+        <v>19.58711531912325</v>
       </c>
       <c r="R5">
-        <v>-97.63434506974384</v>
+        <v>-97.63434506974255</v>
       </c>
       <c r="S5">
-        <v>152.0042069779209</v>
+        <v>152.3512071591595</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8862366025191705</v>
+        <v>0.8983630021759832</v>
       </c>
       <c r="O6">
-        <v>0.7019303077992134</v>
+        <v>0.7019303077991252</v>
       </c>
       <c r="P6">
-        <v>0.8378278209677866</v>
+        <v>0.8502123288763171</v>
       </c>
       <c r="Q6">
-        <v>19.95292512505614</v>
+        <v>19.58711531912325</v>
       </c>
       <c r="R6">
-        <v>-97.63434506974384</v>
+        <v>-97.63434506974255</v>
       </c>
       <c r="S6">
-        <v>152.0042069779209</v>
+        <v>152.3512071591595</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9872732704743753</v>
+        <v>0.9892475576218941</v>
       </c>
       <c r="O2">
-        <v>0.9581045791303407</v>
+        <v>0.9581045791303752</v>
       </c>
       <c r="P2">
-        <v>0.9742986184078002</v>
+        <v>0.9759155118998309</v>
       </c>
       <c r="Q2">
-        <v>28.3548522078124</v>
+        <v>28.31518920031191</v>
       </c>
       <c r="R2">
-        <v>-91.55789971898027</v>
+        <v>-91.55789971898001</v>
       </c>
       <c r="S2">
-        <v>149.8835077627428</v>
+        <v>149.9612709895297</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9540301184162778</v>
+        <v>0.9640067470009921</v>
       </c>
       <c r="O3">
-        <v>0.8139299031203258</v>
+        <v>0.8139299031202379</v>
       </c>
       <c r="P3">
-        <v>0.8764516590625258</v>
+        <v>0.8838423847144834</v>
       </c>
       <c r="Q3">
-        <v>21.54630532481583</v>
+        <v>21.44873099487974</v>
       </c>
       <c r="R3">
-        <v>-99.65273561736731</v>
+        <v>-99.65273561736721</v>
       </c>
       <c r="S3">
-        <v>148.9519453797822</v>
+        <v>149.4009734262428</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9492,58 +9492,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.249557816225953</v>
+        <v>1.246395875192492</v>
       </c>
       <c r="D4">
-        <v>1.031184646681271</v>
+        <v>0.9637497685099665</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.42865083132109</v>
+        <v>14.39213988118449</v>
       </c>
       <c r="G4">
-        <v>11.90709466691282</v>
+        <v>11.12842376561338</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.054587181402296</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>0.6986834516988276</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246193</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.0063975437682</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233323</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745609</v>
       </c>
       <c r="N4">
-        <v>0.8862366025193016</v>
+        <v>0.8983630021765802</v>
       </c>
       <c r="O4">
-        <v>0.7019303077934285</v>
+        <v>0.7019303077933405</v>
       </c>
       <c r="P4">
-        <v>0.8378278209627849</v>
+        <v>0.8502123288715635</v>
       </c>
       <c r="Q4">
-        <v>19.95292512464314</v>
+        <v>19.58711531871856</v>
       </c>
       <c r="R4">
-        <v>-97.63434507042474</v>
+        <v>-97.63434507042344</v>
       </c>
       <c r="S4">
-        <v>152.0042069778074</v>
+        <v>152.3512071590727</v>
       </c>
       <c r="T4">
-        <v>1.14360122740861</v>
+        <v>1.011426384886665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8862366025191702</v>
+        <v>0.8983630021759832</v>
       </c>
       <c r="O5">
-        <v>0.7019303077992132</v>
+        <v>0.7019303077991252</v>
       </c>
       <c r="P5">
-        <v>0.8378278209677866</v>
+        <v>0.8502123288763171</v>
       </c>
       <c r="Q5">
-        <v>19.95292512505613</v>
+        <v>19.58711531912325</v>
       </c>
       <c r="R5">
-        <v>-97.63434506974384</v>
+        <v>-97.63434506974255</v>
       </c>
       <c r="S5">
-        <v>152.0042069779209</v>
+        <v>152.3512071591595</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8862366025191705</v>
+        <v>0.8983630021759832</v>
       </c>
       <c r="O6">
-        <v>0.7019303077992134</v>
+        <v>0.7019303077991252</v>
       </c>
       <c r="P6">
-        <v>0.8378278209677866</v>
+        <v>0.8502123288763171</v>
       </c>
       <c r="Q6">
-        <v>19.95292512505614</v>
+        <v>19.58711531912325</v>
       </c>
       <c r="R6">
-        <v>-97.63434506974384</v>
+        <v>-97.63434506974255</v>
       </c>
       <c r="S6">
-        <v>152.0042069779209</v>
+        <v>152.3512071591595</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512941</v>
+        <v>0.2917056037512944</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644384</v>
+        <v>0.8906876332644389</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062534</v>
+        <v>7.091324389062516</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.1713773550798</v>
       </c>
       <c r="S3">
         <v>171.7794727726615</v>
@@ -10623,37 +10623,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.70915442393707</v>
+        <v>3.709154423937068</v>
       </c>
       <c r="D4">
-        <v>3.70915442393707</v>
+        <v>3.709154423937068</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251918</v>
+        <v>42.82962610251916</v>
       </c>
       <c r="G4">
-        <v>42.82962610251918</v>
+        <v>42.82962610251916</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.352869559198717</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>0.7138615329189585</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163571233</v>
       </c>
       <c r="K4">
         <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640345</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.898438697960047</v>
       </c>
       <c r="N4">
         <v>0.9526279648032094</v>
@@ -10662,16 +10662,16 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047558</v>
+        <v>0.9526279648047561</v>
       </c>
       <c r="Q4">
-        <v>-1.253133125492379E-11</v>
+        <v>-1.255999921629066E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999813</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942856</v>
+        <v>0.9526279647942857</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648136794</v>
+        <v>0.95262796481368</v>
       </c>
       <c r="Q5">
-        <v>4.605063358393287E-10</v>
+        <v>4.604700738255387E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995312</v>
+        <v>179.9999999995311</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10780,16 +10780,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136793</v>
+        <v>0.9526279648136798</v>
       </c>
       <c r="Q6">
-        <v>4.605066884408088E-10</v>
+        <v>4.604762454925335E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995312</v>
+        <v>179.9999999995311</v>
       </c>
     </row>
   </sheetData>
